--- a/Лаб1.xlsx
+++ b/Лаб1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiril\OneDrive\Desktop\Фоменко\Fomenko\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D77C58-7DE2-4609-A82C-A58067DB3D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D95B452-7E47-4D5C-92E8-9F1768621EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="105">
   <si>
     <t>Список работ</t>
   </si>
@@ -339,6 +339,18 @@
   </si>
   <si>
     <t>Комерческая стоимость</t>
+  </si>
+  <si>
+    <t>РП</t>
+  </si>
+  <si>
+    <t>Ana</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Часы работ</t>
   </si>
 </sst>
 </file>
@@ -348,7 +360,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,6 +386,24 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -389,7 +419,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -426,21 +456,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -450,43 +465,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -528,14 +506,23 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="double">
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -544,13 +531,88 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -559,16 +621,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -576,28 +632,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -611,23 +652,81 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -910,21 +1009,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J95"/>
+  <dimension ref="A1:P96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="45.77734375" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
     <col min="7" max="7" width="14.109375" customWidth="1"/>
-    <col min="10" max="10" width="22.44140625" customWidth="1"/>
+    <col min="10" max="10" width="21.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>95</v>
       </c>
@@ -955,506 +1054,2868 @@
       <c r="J1" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L1" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1">
+        <f t="shared" ref="L1:P1" ca="1" si="0">RANDBETWEEN(5,10)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="9">
         <v>1725</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="9">
         <v>1752</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="9">
         <v>847</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="9">
         <v>1270</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="9">
         <v>1693</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="9">
         <v>1736</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="9">
         <v>804</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="9">
         <v>1185</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J2" s="9">
         <v>847</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="35">
         <v>3100</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="35">
         <v>4500</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="35">
         <v>3500</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="35">
         <v>4500</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="35">
         <v>4500</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="35">
         <v>4500</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="35">
         <v>3500</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="35">
         <v>2500</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="35">
         <v>2500</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:16" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="B4" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="38"/>
+      <c r="L4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+      <c r="B5" s="13">
+        <v>6</v>
+      </c>
+      <c r="C5" s="13">
+        <v>19</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="L5">
+        <f ca="1">RANDBETWEEN(16,40)</f>
+        <v>24</v>
+      </c>
+      <c r="M5">
+        <f ca="1">RANDBETWEEN(5,10)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="18" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
+      <c r="B6" s="1">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1">
+        <v>29</v>
+      </c>
+      <c r="G6" s="1">
+        <v>38</v>
+      </c>
+      <c r="H6" s="1">
+        <v>6</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" ref="I6:I69" si="1">SUM(E6:F6)</f>
+        <v>57</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="L6">
+        <f t="shared" ref="L6:L69" ca="1" si="2">RANDBETWEEN(16,40)</f>
+        <v>28</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ref="M6:M69" ca="1" si="3">RANDBETWEEN(5,10)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="L7">
+        <f t="shared" ca="1" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="M7">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1">
+        <v>26</v>
+      </c>
+      <c r="F8" s="1">
+        <v>26</v>
+      </c>
+      <c r="G8" s="1">
+        <v>16</v>
+      </c>
+      <c r="H8" s="1">
+        <v>8</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="L8">
+        <f t="shared" ca="1" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="M8">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="21" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="B9" s="1">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1">
+        <v>31</v>
+      </c>
+      <c r="F9" s="1">
+        <v>32</v>
+      </c>
+      <c r="G9" s="1">
+        <v>21</v>
+      </c>
+      <c r="H9" s="1">
+        <v>5</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="L9">
+        <f t="shared" ca="1" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="M9">
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="22" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="L10">
+        <f t="shared" ca="1" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="M10">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="23" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+      <c r="B11" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="C11" s="1">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1">
+        <v>18</v>
+      </c>
+      <c r="F11" s="1">
+        <v>27</v>
+      </c>
+      <c r="G11" s="1">
+        <v>19</v>
+      </c>
+      <c r="H11" s="1">
+        <v>6</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="L11">
+        <f t="shared" ca="1" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="M11">
+        <f t="shared" ca="1" si="3"/>
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
+    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="L12">
+        <f t="shared" ca="1" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="M12">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1">
+        <v>21</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1">
+        <v>21</v>
+      </c>
+      <c r="F13" s="1">
+        <v>22</v>
+      </c>
+      <c r="G13" s="1">
+        <v>17</v>
+      </c>
+      <c r="H13" s="1">
+        <v>7</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="L13">
+        <f t="shared" ca="1" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="M13">
+        <f t="shared" ca="1" si="3"/>
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+    <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1">
+        <v>11</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1">
+        <v>18</v>
+      </c>
+      <c r="F14" s="1">
+        <v>32</v>
+      </c>
+      <c r="G14" s="1">
+        <v>18</v>
+      </c>
+      <c r="H14" s="1">
+        <v>7</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="L14">
+        <f t="shared" ca="1" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="M14">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="24" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="L15">
+        <f t="shared" ca="1" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="M15">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="21" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+      <c r="B16" s="1">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1">
+        <v>14</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1">
+        <v>39</v>
+      </c>
+      <c r="F16" s="1">
+        <v>31</v>
+      </c>
+      <c r="G16" s="1">
+        <v>18</v>
+      </c>
+      <c r="H16" s="1">
+        <v>9</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="L16">
+        <f t="shared" ca="1" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="M16">
+        <f t="shared" ca="1" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="24" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="L17">
+        <f t="shared" ca="1" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="M17">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="21" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+      <c r="B18" s="1">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1">
+        <v>19</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1">
+        <v>16</v>
+      </c>
+      <c r="F18" s="1">
+        <v>39</v>
+      </c>
+      <c r="G18" s="1">
+        <v>25</v>
+      </c>
+      <c r="H18" s="1">
+        <v>10</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="L18">
+        <f t="shared" ca="1" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="M18">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="26" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="L19">
+        <f t="shared" ca="1" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="M19">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="21" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="B20" s="1">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1">
+        <v>16</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1">
+        <v>17</v>
+      </c>
+      <c r="F20" s="1">
+        <v>31</v>
+      </c>
+      <c r="G20" s="1">
+        <v>35</v>
+      </c>
+      <c r="H20" s="1">
+        <v>7</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="L20">
+        <f t="shared" ca="1" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="M20">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="21" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="B21" s="1">
+        <v>8</v>
+      </c>
+      <c r="C21" s="1">
+        <v>15</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1">
+        <v>24</v>
+      </c>
+      <c r="F21" s="1">
+        <v>24</v>
+      </c>
+      <c r="G21" s="1">
+        <v>20</v>
+      </c>
+      <c r="H21" s="1">
+        <v>10</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="L21">
+        <f t="shared" ca="1" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="M21">
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="21" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="B22" s="1">
+        <v>10</v>
+      </c>
+      <c r="C22" s="1">
+        <v>15</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1">
+        <v>26</v>
+      </c>
+      <c r="F22" s="1">
+        <v>23</v>
+      </c>
+      <c r="G22" s="1">
+        <v>35</v>
+      </c>
+      <c r="H22" s="1">
+        <v>6</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="L22">
+        <f t="shared" ca="1" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="M22">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="21" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+      <c r="B23" s="1">
+        <v>5</v>
+      </c>
+      <c r="C23" s="1">
+        <v>12</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1">
+        <v>29</v>
+      </c>
+      <c r="F23" s="1">
+        <v>28</v>
+      </c>
+      <c r="G23" s="1">
+        <v>23</v>
+      </c>
+      <c r="H23" s="1">
+        <v>6</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="L23">
+        <f t="shared" ca="1" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="M23">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="21" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="6" t="s">
+      <c r="B24" s="1">
+        <v>7</v>
+      </c>
+      <c r="C24" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
+      <c r="D24" s="1"/>
+      <c r="E24" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+      <c r="F24" s="1">
+        <v>18</v>
+      </c>
+      <c r="G24" s="1">
+        <v>35</v>
+      </c>
+      <c r="H24" s="1">
+        <v>5</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="L24">
+        <f t="shared" ca="1" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="M24">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="1">
+        <v>6</v>
+      </c>
+      <c r="C25" s="1">
+        <v>15</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1">
+        <v>22</v>
+      </c>
+      <c r="F25" s="1">
+        <v>29</v>
+      </c>
+      <c r="G25" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+      <c r="H25" s="1">
+        <v>5</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="L25">
+        <f t="shared" ca="1" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="M25">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="L26">
+        <f t="shared" ca="1" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="M26">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="1">
+        <v>7</v>
+      </c>
+      <c r="C27" s="1">
+        <v>21</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1">
+        <v>30</v>
+      </c>
+      <c r="F27" s="1">
+        <v>33</v>
+      </c>
+      <c r="G27" s="1">
+        <v>28</v>
+      </c>
+      <c r="H27" s="1">
+        <v>9</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="J27" s="1"/>
+      <c r="L27">
+        <f t="shared" ca="1" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="M27">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="21" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
+      <c r="B28" s="1">
+        <v>7</v>
+      </c>
+      <c r="C28" s="1">
+        <v>10</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1">
+        <v>39</v>
+      </c>
+      <c r="F28" s="1">
+        <v>27</v>
+      </c>
+      <c r="G28" s="1">
+        <v>32</v>
+      </c>
+      <c r="H28" s="1">
+        <v>10</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="J28" s="1"/>
+      <c r="L28">
+        <f t="shared" ca="1" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="M28">
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="21" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
+      <c r="B29" s="1">
+        <v>8</v>
+      </c>
+      <c r="C29" s="1">
+        <v>11</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1">
+        <v>20</v>
+      </c>
+      <c r="F29" s="1">
+        <v>17</v>
+      </c>
+      <c r="G29" s="1">
+        <v>25</v>
+      </c>
+      <c r="H29" s="1">
+        <v>10</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="L29">
+        <f t="shared" ca="1" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="M29">
+        <f t="shared" ca="1" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="21" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
+      <c r="B30" s="1">
+        <v>8</v>
+      </c>
+      <c r="C30" s="1">
+        <v>15</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1">
+        <v>17</v>
+      </c>
+      <c r="F30" s="1">
+        <v>31</v>
+      </c>
+      <c r="G30" s="1">
+        <v>19</v>
+      </c>
+      <c r="H30" s="1">
+        <v>8</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="J30" s="1"/>
+      <c r="L30">
+        <f t="shared" ca="1" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="M30">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="21" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
+      <c r="B31" s="1">
+        <v>9</v>
+      </c>
+      <c r="C31" s="1">
+        <v>22</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1">
+        <v>16</v>
+      </c>
+      <c r="F31" s="1">
+        <v>20</v>
+      </c>
+      <c r="G31" s="1">
+        <v>29</v>
+      </c>
+      <c r="H31" s="1">
+        <v>9</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="J31" s="1"/>
+      <c r="L31">
+        <f t="shared" ca="1" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="M31">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="21" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
+      <c r="B32" s="1">
+        <v>9</v>
+      </c>
+      <c r="C32" s="1">
+        <v>14</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1">
+        <v>34</v>
+      </c>
+      <c r="F32" s="1">
+        <v>25</v>
+      </c>
+      <c r="G32" s="1">
+        <v>35</v>
+      </c>
+      <c r="H32" s="1">
+        <v>7</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="J32" s="1"/>
+      <c r="L32">
+        <f t="shared" ca="1" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="M32">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="21" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
+      <c r="B33" s="1">
+        <v>6</v>
+      </c>
+      <c r="C33" s="1">
+        <v>24</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1">
+        <v>26</v>
+      </c>
+      <c r="F33" s="1">
+        <v>34</v>
+      </c>
+      <c r="G33" s="1">
+        <v>23</v>
+      </c>
+      <c r="H33" s="1">
+        <v>7</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="J33" s="1"/>
+      <c r="L33">
+        <f t="shared" ca="1" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="M33">
+        <f t="shared" ca="1" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="21" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
+      <c r="B34" s="1">
+        <v>9</v>
+      </c>
+      <c r="C34" s="1">
+        <v>17</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1">
+        <v>25</v>
+      </c>
+      <c r="F34" s="1">
+        <v>16</v>
+      </c>
+      <c r="G34" s="1">
+        <v>21</v>
+      </c>
+      <c r="H34" s="1">
+        <v>5</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="J34" s="1"/>
+      <c r="L34">
+        <f t="shared" ca="1" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="M34">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="21" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
+      <c r="B35" s="1">
+        <v>8</v>
+      </c>
+      <c r="C35" s="1">
+        <v>18</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1">
+        <v>35</v>
+      </c>
+      <c r="F35" s="1">
+        <v>36</v>
+      </c>
+      <c r="G35" s="1">
+        <v>22</v>
+      </c>
+      <c r="H35" s="1">
+        <v>6</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="J35" s="1"/>
+      <c r="L35">
+        <f t="shared" ca="1" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="M35">
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="21" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="5" t="s">
+      <c r="B36" s="1">
+        <v>7</v>
+      </c>
+      <c r="C36" s="1">
+        <v>21</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1">
+        <v>33</v>
+      </c>
+      <c r="F36" s="1">
+        <v>38</v>
+      </c>
+      <c r="G36" s="1">
+        <v>27</v>
+      </c>
+      <c r="H36" s="1">
+        <v>6</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="J36" s="1"/>
+      <c r="L36">
+        <f t="shared" ca="1" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="M36">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="21" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
+      <c r="B37" s="1">
+        <v>9</v>
+      </c>
+      <c r="C37" s="1">
+        <v>18</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1">
+        <v>34</v>
+      </c>
+      <c r="F37" s="1">
+        <v>19</v>
+      </c>
+      <c r="G37" s="1">
+        <v>23</v>
+      </c>
+      <c r="H37" s="1">
+        <v>10</v>
+      </c>
+      <c r="I37" s="1">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="J37" s="1"/>
+      <c r="L37">
+        <f t="shared" ca="1" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="M37">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="24" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="9" t="s">
+      <c r="B38" s="1">
+        <v>7</v>
+      </c>
+      <c r="C38" s="1">
+        <v>14</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="6" t="s">
+      <c r="F38" s="1">
+        <v>26</v>
+      </c>
+      <c r="G38" s="1">
+        <v>28</v>
+      </c>
+      <c r="H38" s="1">
+        <v>9</v>
+      </c>
+      <c r="I38" s="1">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="J38" s="1"/>
+      <c r="L38">
+        <f t="shared" ca="1" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="M38">
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="1">
+        <v>10</v>
+      </c>
+      <c r="C39" s="1">
+        <v>14</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1">
+        <v>33</v>
+      </c>
+      <c r="F39" s="1">
+        <v>37</v>
+      </c>
+      <c r="G39" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="2" t="s">
+      <c r="H39" s="1">
+        <v>9</v>
+      </c>
+      <c r="I39" s="1">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="J39" s="1"/>
+      <c r="L39">
+        <f t="shared" ca="1" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="M39">
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="1">
+        <v>6</v>
+      </c>
+      <c r="C40" s="1">
+        <v>22</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1">
+        <v>30</v>
+      </c>
+      <c r="F40" s="1">
+        <v>27</v>
+      </c>
+      <c r="G40" s="1">
+        <v>30</v>
+      </c>
+      <c r="H40" s="1">
+        <v>5</v>
+      </c>
+      <c r="I40" s="1">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="J40" s="1"/>
+      <c r="L40">
+        <f t="shared" ca="1" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="M40">
+        <f t="shared" ca="1" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="24" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
+      <c r="B41" s="1">
+        <v>7</v>
+      </c>
+      <c r="C41" s="1">
+        <v>18</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1">
+        <v>34</v>
+      </c>
+      <c r="F41" s="1">
+        <v>33</v>
+      </c>
+      <c r="G41" s="1">
+        <v>29</v>
+      </c>
+      <c r="H41" s="1">
+        <v>6</v>
+      </c>
+      <c r="I41" s="1">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="J41" s="1"/>
+      <c r="L41">
+        <f t="shared" ca="1" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="M41">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
+      <c r="B42" s="1">
+        <v>8</v>
+      </c>
+      <c r="C42" s="1">
+        <v>10</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1">
+        <v>28</v>
+      </c>
+      <c r="F42" s="1">
+        <v>29</v>
+      </c>
+      <c r="G42" s="1">
+        <v>23</v>
+      </c>
+      <c r="H42" s="1">
+        <v>6</v>
+      </c>
+      <c r="I42" s="1">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="J42" s="1"/>
+      <c r="L42">
+        <f t="shared" ca="1" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="M42">
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="21" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
+      <c r="B43" s="1">
+        <v>5</v>
+      </c>
+      <c r="C43" s="1">
+        <v>19</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1">
+        <v>38</v>
+      </c>
+      <c r="F43" s="1">
+        <v>33</v>
+      </c>
+      <c r="G43" s="1">
+        <v>38</v>
+      </c>
+      <c r="H43" s="1">
+        <v>5</v>
+      </c>
+      <c r="I43" s="1">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="J43" s="1"/>
+      <c r="L43">
+        <f t="shared" ca="1" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="M43">
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="21" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
+      <c r="B44" s="1">
+        <v>9</v>
+      </c>
+      <c r="C44" s="1">
+        <v>10</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1">
+        <v>27</v>
+      </c>
+      <c r="F44" s="1">
+        <v>30</v>
+      </c>
+      <c r="G44" s="1">
+        <v>37</v>
+      </c>
+      <c r="H44" s="1">
+        <v>9</v>
+      </c>
+      <c r="I44" s="1">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="J44" s="1"/>
+      <c r="L44">
+        <f t="shared" ca="1" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="M44">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" s="21" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
+      <c r="B45" s="1">
+        <v>8</v>
+      </c>
+      <c r="C45" s="1">
+        <v>16</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1">
+        <v>35</v>
+      </c>
+      <c r="F45" s="1">
+        <v>37</v>
+      </c>
+      <c r="G45" s="1">
+        <v>30</v>
+      </c>
+      <c r="H45" s="1">
+        <v>8</v>
+      </c>
+      <c r="I45" s="1">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="J45" s="1"/>
+      <c r="L45">
+        <f t="shared" ca="1" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="M45">
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A46" s="21" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
+      <c r="B46" s="1">
+        <v>6</v>
+      </c>
+      <c r="C46" s="1">
+        <v>15</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1">
+        <v>22</v>
+      </c>
+      <c r="F46" s="1">
+        <v>18</v>
+      </c>
+      <c r="G46" s="1">
+        <v>34</v>
+      </c>
+      <c r="H46" s="1">
+        <v>10</v>
+      </c>
+      <c r="I46" s="1">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="J46" s="1"/>
+      <c r="L46">
+        <f t="shared" ca="1" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="M46">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="21" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="5" t="s">
+      <c r="B47" s="1">
+        <v>9</v>
+      </c>
+      <c r="C47" s="1">
+        <v>15</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1">
+        <v>21</v>
+      </c>
+      <c r="F47" s="1">
+        <v>23</v>
+      </c>
+      <c r="G47" s="1">
+        <v>36</v>
+      </c>
+      <c r="H47" s="1">
+        <v>6</v>
+      </c>
+      <c r="I47" s="1">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="J47" s="1"/>
+      <c r="L47">
+        <f t="shared" ca="1" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="M47">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="21" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="2" t="s">
+      <c r="B48" s="1">
+        <v>8</v>
+      </c>
+      <c r="C48" s="1">
+        <v>18</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1">
+        <v>37</v>
+      </c>
+      <c r="F48" s="1">
+        <v>25</v>
+      </c>
+      <c r="G48" s="1">
+        <v>24</v>
+      </c>
+      <c r="H48" s="1">
+        <v>8</v>
+      </c>
+      <c r="I48" s="1">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="J48" s="1"/>
+      <c r="L48">
+        <f t="shared" ca="1" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="M48">
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="24" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="L49">
+        <f t="shared" ca="1" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="M49">
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="20" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
+      <c r="B50" s="1">
+        <v>5</v>
+      </c>
+      <c r="C50" s="1">
+        <v>18</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1">
+        <v>24</v>
+      </c>
+      <c r="F50" s="1">
+        <v>20</v>
+      </c>
+      <c r="G50" s="1">
+        <v>18</v>
+      </c>
+      <c r="H50" s="1">
+        <v>5</v>
+      </c>
+      <c r="I50" s="1">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="J50" s="1"/>
+      <c r="L50">
+        <f t="shared" ca="1" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="M50">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="21" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
+      <c r="B51" s="1">
+        <v>5</v>
+      </c>
+      <c r="C51" s="1">
+        <v>21</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1">
+        <v>22</v>
+      </c>
+      <c r="F51" s="1">
+        <v>29</v>
+      </c>
+      <c r="G51" s="1">
+        <v>30</v>
+      </c>
+      <c r="H51" s="1">
+        <v>5</v>
+      </c>
+      <c r="I51" s="1">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="J51" s="1"/>
+      <c r="L51">
+        <f t="shared" ca="1" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="M51">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="21" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="6" t="s">
+      <c r="B52" s="1">
+        <v>10</v>
+      </c>
+      <c r="C52" s="1">
+        <v>22</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1">
+        <v>23</v>
+      </c>
+      <c r="F52" s="1">
+        <v>21</v>
+      </c>
+      <c r="G52" s="1">
+        <v>17</v>
+      </c>
+      <c r="H52" s="1">
+        <v>9</v>
+      </c>
+      <c r="I52" s="1">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="J52" s="1"/>
+      <c r="L52">
+        <f t="shared" ca="1" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="M52">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="25" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="2" t="s">
+      <c r="B53" s="1">
+        <v>7</v>
+      </c>
+      <c r="C53" s="1">
+        <v>20</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1">
+        <v>30</v>
+      </c>
+      <c r="F53" s="1">
+        <v>33</v>
+      </c>
+      <c r="G53" s="1">
+        <v>23</v>
+      </c>
+      <c r="H53" s="1">
+        <v>10</v>
+      </c>
+      <c r="I53" s="1">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="J53" s="1"/>
+      <c r="L53">
+        <f t="shared" ca="1" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="M53">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="24" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="L54">
+        <f t="shared" ca="1" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="M54">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="20" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="5" t="s">
+      <c r="B55" s="1">
+        <v>10</v>
+      </c>
+      <c r="C55" s="1">
+        <v>21</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1">
+        <v>20</v>
+      </c>
+      <c r="F55" s="1">
+        <v>27</v>
+      </c>
+      <c r="G55" s="1">
+        <v>33</v>
+      </c>
+      <c r="H55" s="1">
+        <v>9</v>
+      </c>
+      <c r="I55" s="1">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="J55" s="1"/>
+      <c r="L55">
+        <f t="shared" ca="1" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="M55">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="21" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="6" t="s">
+      <c r="B56" s="1">
+        <v>8</v>
+      </c>
+      <c r="C56" s="1">
+        <v>24</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1">
+        <v>26</v>
+      </c>
+      <c r="F56" s="1">
+        <v>30</v>
+      </c>
+      <c r="G56" s="1">
+        <v>34</v>
+      </c>
+      <c r="H56" s="1">
+        <v>7</v>
+      </c>
+      <c r="I56" s="1">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="J56" s="1"/>
+      <c r="L56">
+        <f t="shared" ca="1" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="M56">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="25" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="2" t="s">
+      <c r="B57" s="1">
+        <v>10</v>
+      </c>
+      <c r="C57" s="1">
+        <v>21</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1">
+        <v>21</v>
+      </c>
+      <c r="F57" s="1">
+        <v>16</v>
+      </c>
+      <c r="G57" s="1">
+        <v>40</v>
+      </c>
+      <c r="H57" s="1">
+        <v>10</v>
+      </c>
+      <c r="I57" s="1">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="J57" s="1"/>
+      <c r="L57">
+        <f t="shared" ca="1" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="M57">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="24" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="L58">
+        <f t="shared" ca="1" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="M58">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59" s="20" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="5" t="s">
+      <c r="B59" s="1">
+        <v>5</v>
+      </c>
+      <c r="C59" s="1">
+        <v>21</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1">
+        <v>36</v>
+      </c>
+      <c r="F59" s="1">
+        <v>19</v>
+      </c>
+      <c r="G59" s="1">
+        <v>37</v>
+      </c>
+      <c r="H59" s="1">
+        <v>6</v>
+      </c>
+      <c r="I59" s="1">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="J59" s="1"/>
+      <c r="L59">
+        <f t="shared" ca="1" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="M59">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60" s="21" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="5" t="s">
+      <c r="B60" s="1">
+        <v>5</v>
+      </c>
+      <c r="C60" s="1">
+        <v>20</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1">
+        <v>20</v>
+      </c>
+      <c r="F60" s="1">
+        <v>38</v>
+      </c>
+      <c r="G60" s="1">
+        <v>21</v>
+      </c>
+      <c r="H60" s="1">
+        <v>9</v>
+      </c>
+      <c r="I60" s="1">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="J60" s="1"/>
+      <c r="L60">
+        <f t="shared" ca="1" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="M60">
+        <f t="shared" ca="1" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="21" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="2" t="s">
+      <c r="B61" s="1">
+        <v>7</v>
+      </c>
+      <c r="C61" s="1">
+        <v>19</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1">
+        <v>18</v>
+      </c>
+      <c r="F61" s="1">
+        <v>40</v>
+      </c>
+      <c r="G61" s="1">
+        <v>34</v>
+      </c>
+      <c r="H61" s="1">
+        <v>6</v>
+      </c>
+      <c r="I61" s="1">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="J61" s="1"/>
+      <c r="L61">
+        <f t="shared" ca="1" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="M61">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="24" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="4" t="s">
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="L62">
+        <f t="shared" ca="1" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="M62">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="20" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="5" t="s">
+      <c r="B63" s="1">
+        <v>8</v>
+      </c>
+      <c r="C63" s="1">
+        <v>15</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1">
+        <v>27</v>
+      </c>
+      <c r="F63" s="1">
+        <v>35</v>
+      </c>
+      <c r="G63" s="1">
+        <v>27</v>
+      </c>
+      <c r="H63" s="1">
+        <v>6</v>
+      </c>
+      <c r="I63" s="1">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="J63" s="1"/>
+      <c r="L63">
+        <f t="shared" ca="1" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="M63">
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="21" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="2" t="s">
+      <c r="B64" s="1">
+        <v>10</v>
+      </c>
+      <c r="C64" s="1">
+        <v>16</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1">
+        <v>29</v>
+      </c>
+      <c r="F64" s="1">
+        <v>17</v>
+      </c>
+      <c r="G64" s="1">
+        <v>21</v>
+      </c>
+      <c r="H64" s="1">
+        <v>5</v>
+      </c>
+      <c r="I64" s="1">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="J64" s="1"/>
+      <c r="L64">
+        <f t="shared" ca="1" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="M64">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="24" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="s">
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="L65">
+        <f t="shared" ca="1" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="M65">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="20" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="6" t="s">
+      <c r="B66" s="1">
+        <v>8</v>
+      </c>
+      <c r="C66" s="1">
+        <v>11</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1">
+        <v>31</v>
+      </c>
+      <c r="F66" s="1">
+        <v>25</v>
+      </c>
+      <c r="G66" s="1">
+        <v>32</v>
+      </c>
+      <c r="H66" s="1">
+        <v>10</v>
+      </c>
+      <c r="I66" s="1">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="J66" s="1"/>
+      <c r="L66">
+        <f t="shared" ca="1" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="M66">
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="25" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="2" t="s">
+      <c r="B67" s="1">
+        <v>9</v>
+      </c>
+      <c r="C67" s="1">
+        <v>22</v>
+      </c>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1">
+        <v>31</v>
+      </c>
+      <c r="F67" s="1">
+        <v>36</v>
+      </c>
+      <c r="G67" s="1">
+        <v>24</v>
+      </c>
+      <c r="H67" s="1">
+        <v>5</v>
+      </c>
+      <c r="I67" s="1">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="J67" s="1"/>
+      <c r="L67">
+        <f t="shared" ca="1" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="M67">
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="24" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="s">
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="L68">
+        <f t="shared" ca="1" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="M68">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A69" s="20" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="8" t="s">
+      <c r="B69" s="1">
+        <v>10</v>
+      </c>
+      <c r="C69" s="1">
+        <v>10</v>
+      </c>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1">
+        <v>28</v>
+      </c>
+      <c r="F69" s="1">
+        <v>31</v>
+      </c>
+      <c r="G69" s="1">
+        <v>28</v>
+      </c>
+      <c r="H69" s="1">
+        <v>5</v>
+      </c>
+      <c r="I69" s="1">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="J69" s="1"/>
+      <c r="L69">
+        <f t="shared" ca="1" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="M69">
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="18" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="4" t="s">
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="L70">
+        <f t="shared" ref="L70:L83" ca="1" si="4">RANDBETWEEN(16,40)</f>
+        <v>27</v>
+      </c>
+      <c r="M70">
+        <f t="shared" ref="M70:M82" ca="1" si="5">RANDBETWEEN(5,10)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="20" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A72" s="5" t="s">
+      <c r="B71" s="1">
+        <v>10</v>
+      </c>
+      <c r="C71" s="1">
+        <v>12</v>
+      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1">
+        <v>30</v>
+      </c>
+      <c r="F71" s="1">
+        <v>35</v>
+      </c>
+      <c r="G71" s="1">
+        <v>28</v>
+      </c>
+      <c r="H71" s="1">
+        <v>7</v>
+      </c>
+      <c r="I71" s="1">
+        <f t="shared" ref="I70:I82" si="6">SUM(E71:F71)</f>
+        <v>65</v>
+      </c>
+      <c r="J71" s="1"/>
+      <c r="L71">
+        <f t="shared" ca="1" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="M71">
+        <f t="shared" ca="1" si="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A72" s="21" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="6" t="s">
+      <c r="B72" s="1">
+        <v>9</v>
+      </c>
+      <c r="C72" s="1">
+        <v>12</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1">
+        <v>30</v>
+      </c>
+      <c r="F72" s="1">
+        <v>17</v>
+      </c>
+      <c r="G72" s="1">
+        <v>16</v>
+      </c>
+      <c r="H72" s="1">
+        <v>7</v>
+      </c>
+      <c r="I72" s="1">
+        <f t="shared" si="6"/>
+        <v>47</v>
+      </c>
+      <c r="J72" s="1"/>
+      <c r="L72">
+        <f t="shared" ca="1" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="M72">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="25" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="2" t="s">
+      <c r="B73" s="1">
+        <v>5</v>
+      </c>
+      <c r="C73" s="1">
+        <v>19</v>
+      </c>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1">
+        <v>20</v>
+      </c>
+      <c r="F73" s="1">
+        <v>26</v>
+      </c>
+      <c r="G73" s="1">
+        <v>40</v>
+      </c>
+      <c r="H73" s="1">
+        <v>5</v>
+      </c>
+      <c r="I73" s="1">
+        <f t="shared" si="6"/>
+        <v>46</v>
+      </c>
+      <c r="J73" s="1"/>
+      <c r="L73">
+        <f t="shared" ca="1" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="M73">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="24" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="20" t="s">
+      <c r="B74" s="1">
+        <v>7</v>
+      </c>
+      <c r="C74" s="1">
+        <v>19</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1">
+        <v>21</v>
+      </c>
+      <c r="F74" s="1">
+        <v>22</v>
+      </c>
+      <c r="G74" s="1">
+        <v>40</v>
+      </c>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1">
+        <f t="shared" si="6"/>
+        <v>43</v>
+      </c>
+      <c r="J74" s="1"/>
+      <c r="L74">
+        <f t="shared" ca="1" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="M74">
+        <f t="shared" ca="1" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="27" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="22" t="s">
+      <c r="B75" s="1">
+        <v>10</v>
+      </c>
+      <c r="C75" s="1">
+        <v>22</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="L75">
+        <f t="shared" ca="1" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="M75">
+        <f t="shared" ca="1" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="28" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
+      <c r="B76" s="1">
+        <v>6</v>
+      </c>
+      <c r="C76" s="1">
+        <v>10</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1">
+        <v>40</v>
+      </c>
+      <c r="L76">
+        <f t="shared" ca="1" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="M76">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A77" s="29" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="24" t="s">
+      <c r="B77" s="1">
+        <v>7</v>
+      </c>
+      <c r="C77" s="1">
+        <v>12</v>
+      </c>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1">
+        <v>40</v>
+      </c>
+      <c r="L77">
+        <f t="shared" ca="1" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="M77">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="30" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="25" t="s">
+      <c r="B78" s="1">
+        <v>7</v>
+      </c>
+      <c r="C78" s="1">
+        <v>22</v>
+      </c>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1">
+        <v>56</v>
+      </c>
+      <c r="L78">
+        <f t="shared" ca="1" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="M78">
+        <f t="shared" ca="1" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="27" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="4" t="s">
+      <c r="B79" s="1">
+        <v>10</v>
+      </c>
+      <c r="C79" s="1">
+        <v>19</v>
+      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="L79">
+        <f t="shared" ca="1" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="M79">
+        <f t="shared" ca="1" si="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="20" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A81" s="5" t="s">
+      <c r="B80" s="1">
+        <v>7</v>
+      </c>
+      <c r="C80" s="1">
+        <v>22</v>
+      </c>
+      <c r="D80" s="1">
+        <v>24</v>
+      </c>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="L80">
+        <f t="shared" ca="1" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="M80">
+        <f t="shared" ca="1" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A81" s="21" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="5" t="s">
+      <c r="B81" s="1">
+        <v>9</v>
+      </c>
+      <c r="C81" s="1">
+        <v>24</v>
+      </c>
+      <c r="D81" s="1">
+        <v>24</v>
+      </c>
+      <c r="E81" s="1">
+        <v>33</v>
+      </c>
+      <c r="F81" s="1">
+        <v>19</v>
+      </c>
+      <c r="G81" s="1">
+        <v>26</v>
+      </c>
+      <c r="H81" s="1">
+        <v>9</v>
+      </c>
+      <c r="I81" s="1">
+        <f t="shared" si="6"/>
+        <v>52</v>
+      </c>
+      <c r="J81" s="1"/>
+      <c r="L81">
+        <f t="shared" ca="1" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="M81">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="5"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="5"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="5"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="5"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="5"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="5"/>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" s="5"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="5"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" s="23"/>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" s="23"/>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="23"/>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" s="23"/>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" s="23"/>
+      <c r="B82" s="1">
+        <v>6</v>
+      </c>
+      <c r="C82" s="1">
+        <v>21</v>
+      </c>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="L82">
+        <f t="shared" ca="1" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="M82">
+        <f t="shared" ca="1" si="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A83" s="31"/>
+      <c r="B83" s="32"/>
+      <c r="C83" s="32"/>
+      <c r="D83" s="32"/>
+      <c r="E83" s="32"/>
+      <c r="F83" s="32"/>
+      <c r="G83" s="32"/>
+      <c r="H83" s="32"/>
+      <c r="I83" s="32"/>
+      <c r="J83" s="32"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A84" s="31"/>
+      <c r="B84" s="33"/>
+      <c r="C84" s="33"/>
+      <c r="D84" s="33"/>
+      <c r="E84" s="33"/>
+      <c r="F84" s="33"/>
+      <c r="G84" s="33"/>
+      <c r="H84" s="33"/>
+      <c r="I84" s="33"/>
+      <c r="J84" s="33"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A85" s="31"/>
+      <c r="B85" s="33"/>
+      <c r="C85" s="33"/>
+      <c r="D85" s="33"/>
+      <c r="E85" s="33"/>
+      <c r="F85" s="33"/>
+      <c r="G85" s="33"/>
+      <c r="H85" s="33"/>
+      <c r="I85" s="33"/>
+      <c r="J85" s="33"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A86" s="31"/>
+      <c r="B86" s="33"/>
+      <c r="C86" s="33"/>
+      <c r="D86" s="33"/>
+      <c r="E86" s="33"/>
+      <c r="F86" s="33"/>
+      <c r="G86" s="33"/>
+      <c r="H86" s="33"/>
+      <c r="I86" s="33"/>
+      <c r="J86" s="33"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A87" s="31"/>
+      <c r="B87" s="33"/>
+      <c r="C87" s="33"/>
+      <c r="D87" s="33"/>
+      <c r="E87" s="33"/>
+      <c r="F87" s="33"/>
+      <c r="G87" s="33"/>
+      <c r="H87" s="33"/>
+      <c r="I87" s="33"/>
+      <c r="J87" s="33"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A88" s="31"/>
+      <c r="B88" s="33"/>
+      <c r="C88" s="33"/>
+      <c r="D88" s="33"/>
+      <c r="E88" s="33"/>
+      <c r="F88" s="33"/>
+      <c r="G88" s="33"/>
+      <c r="H88" s="33"/>
+      <c r="I88" s="33"/>
+      <c r="J88" s="33"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A89" s="31"/>
+      <c r="B89" s="33"/>
+      <c r="C89" s="33"/>
+      <c r="D89" s="33"/>
+      <c r="E89" s="33"/>
+      <c r="F89" s="33"/>
+      <c r="G89" s="33"/>
+      <c r="H89" s="33"/>
+      <c r="I89" s="33"/>
+      <c r="J89" s="33"/>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A90" s="31"/>
+      <c r="B90" s="33"/>
+      <c r="C90" s="33"/>
+      <c r="D90" s="33"/>
+      <c r="E90" s="33"/>
+      <c r="F90" s="33"/>
+      <c r="G90" s="33"/>
+      <c r="H90" s="33"/>
+      <c r="I90" s="33"/>
+      <c r="J90" s="33"/>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A91" s="34"/>
+      <c r="B91" s="33"/>
+      <c r="C91" s="33"/>
+      <c r="D91" s="33"/>
+      <c r="E91" s="33"/>
+      <c r="F91" s="33"/>
+      <c r="G91" s="33"/>
+      <c r="H91" s="33"/>
+      <c r="I91" s="33"/>
+      <c r="J91" s="33"/>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A92" s="34"/>
+      <c r="B92" s="33"/>
+      <c r="C92" s="33"/>
+      <c r="D92" s="33"/>
+      <c r="E92" s="33"/>
+      <c r="F92" s="33"/>
+      <c r="G92" s="33"/>
+      <c r="H92" s="33"/>
+      <c r="I92" s="33"/>
+      <c r="J92" s="33"/>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A93" s="34"/>
+      <c r="B93" s="33"/>
+      <c r="C93" s="33"/>
+      <c r="D93" s="33"/>
+      <c r="E93" s="33"/>
+      <c r="F93" s="33"/>
+      <c r="G93" s="33"/>
+      <c r="H93" s="33"/>
+      <c r="I93" s="33"/>
+      <c r="J93" s="33"/>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A94" s="34"/>
+      <c r="B94" s="33"/>
+      <c r="C94" s="33"/>
+      <c r="D94" s="33"/>
+      <c r="E94" s="33"/>
+      <c r="F94" s="33"/>
+      <c r="G94" s="33"/>
+      <c r="H94" s="33"/>
+      <c r="I94" s="33"/>
+      <c r="J94" s="33"/>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A95" s="34"/>
+      <c r="B95" s="33"/>
+      <c r="C95" s="33"/>
+      <c r="D95" s="33"/>
+      <c r="E95" s="33"/>
+      <c r="F95" s="33"/>
+      <c r="G95" s="33"/>
+      <c r="H95" s="33"/>
+      <c r="I95" s="33"/>
+      <c r="J95" s="33"/>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A96" s="33"/>
+      <c r="B96" s="33"/>
+      <c r="C96" s="33"/>
+      <c r="D96" s="33"/>
+      <c r="E96" s="33"/>
+      <c r="F96" s="33"/>
+      <c r="G96" s="33"/>
+      <c r="H96" s="33"/>
+      <c r="I96" s="33"/>
+      <c r="J96" s="33"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B4:J4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1464,7 +3925,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G10"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1477,52 +3938,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="6" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="10">
         <v>207000</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="10">
         <f>B2*43/100</f>
         <v>89010</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="10">
         <f>B2*0.06</f>
         <v>12420</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="10">
         <f>SUM(B2:D2)</f>
         <v>308430</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="10">
         <f>E2/176</f>
         <v>1752.4431818181818</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="10">
         <v>3100</v>
       </c>
     </row>
@@ -1530,231 +3991,231 @@
       <c r="A3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="9">
         <v>207000</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="10">
         <f t="shared" ref="C3:C10" si="0">B3*43/100</f>
         <v>89010</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="10">
         <f t="shared" ref="D3:D10" si="1">B3*0.06</f>
         <v>12420</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="10">
         <f t="shared" ref="E3:E10" si="2">SUM(B3:D3)</f>
         <v>308430</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="10">
         <f t="shared" ref="F3:F10" si="3">E3/176</f>
         <v>1752.4431818181818</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="9">
         <v>4500</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="10">
         <v>100000</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="10">
         <f t="shared" si="0"/>
         <v>43000</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="10">
         <f t="shared" si="1"/>
         <v>6000</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="10">
         <f t="shared" si="2"/>
         <v>149000</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="10">
         <f t="shared" si="3"/>
         <v>846.59090909090912</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="9">
         <v>3500</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="9">
         <v>150000</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="10">
         <f t="shared" si="0"/>
         <v>64500</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="10">
         <f t="shared" si="1"/>
         <v>9000</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="10">
         <f t="shared" si="2"/>
         <v>223500</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="10">
         <f t="shared" si="3"/>
         <v>1269.8863636363637</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="9">
         <v>4500</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="9">
         <v>200000</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="10">
         <f t="shared" si="0"/>
         <v>86000</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="10">
         <f t="shared" si="1"/>
         <v>12000</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="10">
         <f t="shared" si="2"/>
         <v>298000</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="10">
         <f t="shared" si="3"/>
         <v>1693.1818181818182</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="9">
         <v>4500</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="9">
         <v>205000</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="10">
         <f t="shared" si="0"/>
         <v>88150</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="10">
         <f t="shared" si="1"/>
         <v>12300</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="10">
         <f t="shared" si="2"/>
         <v>305450</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="10">
         <f t="shared" si="3"/>
         <v>1735.5113636363637</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="9">
         <v>4500</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="9">
         <v>95000</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="10">
         <f t="shared" si="0"/>
         <v>40850</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="10">
         <f t="shared" si="1"/>
         <v>5700</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="10">
         <f t="shared" si="2"/>
         <v>141550</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="10">
         <f t="shared" si="3"/>
         <v>804.26136363636363</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="9">
         <v>3500</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="9">
         <v>140000</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="10">
         <f t="shared" si="0"/>
         <v>60200</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="10">
         <f t="shared" si="1"/>
         <v>8400</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="10">
         <f t="shared" si="2"/>
         <v>208600</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="10">
         <f>E9/176</f>
         <v>1185.2272727272727</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="9">
         <v>2500</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="9">
         <v>100000</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="10">
         <f t="shared" si="0"/>
         <v>43000</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="10">
         <f t="shared" si="1"/>
         <v>6000</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="10">
         <f t="shared" si="2"/>
         <v>149000</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="10">
         <f t="shared" si="3"/>
         <v>846.59090909090912</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="9">
         <v>2500</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="18">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="11">
         <f>SUM(E2:E10)</f>
         <v>2091960</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="15"/>
-      <c r="D12" s="15"/>
+      <c r="B12" s="8"/>
+      <c r="D12" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1766,7 +4227,7 @@
   <dimension ref="K1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1779,13 +4240,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K1" s="21"/>
+      <c r="K1" s="12"/>
     </row>
     <row r="2" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K2" s="21"/>
+      <c r="K2" s="12"/>
     </row>
     <row r="3" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K3" s="21"/>
+      <c r="K3" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Лаб1.xlsx
+++ b/Лаб1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiril\OneDrive\Desktop\Фоменко\Fomenko\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D95B452-7E47-4D5C-92E8-9F1768621EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF25F581-291B-4738-BDF4-7ACED77700E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="102">
   <si>
     <t>Список работ</t>
   </si>
@@ -339,15 +339,6 @@
   </si>
   <si>
     <t>Комерческая стоимость</t>
-  </si>
-  <si>
-    <t>РП</t>
-  </si>
-  <si>
-    <t>Ana</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Часы работ</t>
@@ -621,7 +612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -659,7 +650,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -707,14 +698,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1009,10 +996,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P96"/>
+  <dimension ref="A1:P95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1054,14 +1041,10 @@
       <c r="J1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>102</v>
-      </c>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
       <c r="P1">
-        <f t="shared" ref="L1:P1" ca="1" si="0">RANDBETWEEN(5,10)</f>
+        <f t="shared" ref="P1" ca="1" si="0">RANDBETWEEN(5,10)</f>
         <v>9</v>
       </c>
     </row>
@@ -1101,31 +1084,31 @@
       <c r="A3" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="35">
+      <c r="B3" s="33">
         <v>3100</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="33">
         <v>4500</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="33">
         <v>3500</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="33">
         <v>4500</v>
       </c>
-      <c r="F3" s="35">
+      <c r="F3" s="33">
         <v>4500</v>
       </c>
-      <c r="G3" s="35">
+      <c r="G3" s="33">
         <v>4500</v>
       </c>
-      <c r="H3" s="35">
+      <c r="H3" s="33">
         <v>3500</v>
       </c>
-      <c r="I3" s="35">
+      <c r="I3" s="33">
         <v>2500</v>
       </c>
-      <c r="J3" s="35">
+      <c r="J3" s="33">
         <v>2500</v>
       </c>
     </row>
@@ -1133,20 +1116,17 @@
       <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="38"/>
-      <c r="L4" t="s">
-        <v>103</v>
-      </c>
+      <c r="B4" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="36"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
@@ -1165,14 +1145,6 @@
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
-      <c r="L5">
-        <f ca="1">RANDBETWEEN(16,40)</f>
-        <v>24</v>
-      </c>
-      <c r="M5">
-        <f ca="1">RANDBETWEEN(5,10)</f>
-        <v>8</v>
-      </c>
     </row>
     <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
@@ -1202,14 +1174,6 @@
         <v>57</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="L6">
-        <f t="shared" ref="L6:L69" ca="1" si="2">RANDBETWEEN(16,40)</f>
-        <v>28</v>
-      </c>
-      <c r="M6">
-        <f t="shared" ref="M6:M69" ca="1" si="3">RANDBETWEEN(5,10)</f>
-        <v>7</v>
-      </c>
     </row>
     <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
@@ -1224,14 +1188,6 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="L7">
-        <f t="shared" ca="1" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="M7">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
@@ -1261,14 +1217,6 @@
         <v>52</v>
       </c>
       <c r="J8" s="1"/>
-      <c r="L8">
-        <f t="shared" ca="1" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="M8">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
     </row>
     <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="21" t="s">
@@ -1298,14 +1246,6 @@
         <v>63</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="L9">
-        <f t="shared" ca="1" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="M9">
-        <f t="shared" ca="1" si="3"/>
-        <v>10</v>
-      </c>
     </row>
     <row r="10" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="22" t="s">
@@ -1320,14 +1260,6 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="L10">
-        <f t="shared" ca="1" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="M10">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
     </row>
     <row r="11" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
@@ -1357,14 +1289,6 @@
         <v>45</v>
       </c>
       <c r="J11" s="1"/>
-      <c r="L11">
-        <f t="shared" ca="1" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="M11">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
     </row>
     <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="24" t="s">
@@ -1379,14 +1303,6 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="L12">
-        <f t="shared" ca="1" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="M12">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
     </row>
     <row r="13" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
@@ -1416,14 +1332,6 @@
         <v>43</v>
       </c>
       <c r="J13" s="1"/>
-      <c r="L13">
-        <f t="shared" ca="1" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="M13">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
     </row>
     <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="25" t="s">
@@ -1453,14 +1361,6 @@
         <v>50</v>
       </c>
       <c r="J14" s="1"/>
-      <c r="L14">
-        <f t="shared" ca="1" si="2"/>
-        <v>34</v>
-      </c>
-      <c r="M14">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
     </row>
     <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="24" t="s">
@@ -1475,14 +1375,6 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="L15">
-        <f t="shared" ca="1" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="M15">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
     </row>
     <row r="16" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="21" t="s">
@@ -1512,16 +1404,8 @@
         <v>70</v>
       </c>
       <c r="J16" s="1"/>
-      <c r="L16">
-        <f t="shared" ca="1" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="M16">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="24" t="s">
         <v>11</v>
       </c>
@@ -1534,16 +1418,8 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="L17">
-        <f t="shared" ca="1" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="M17">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="21" t="s">
         <v>12</v>
       </c>
@@ -1571,16 +1447,8 @@
         <v>55</v>
       </c>
       <c r="J18" s="1"/>
-      <c r="L18">
-        <f t="shared" ca="1" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="M18">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
         <v>13</v>
       </c>
@@ -1593,16 +1461,8 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="L19">
-        <f t="shared" ca="1" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="M19">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>14</v>
       </c>
@@ -1630,16 +1490,8 @@
         <v>48</v>
       </c>
       <c r="J20" s="1"/>
-      <c r="L20">
-        <f t="shared" ca="1" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="M20">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="s">
         <v>15</v>
       </c>
@@ -1667,16 +1519,8 @@
         <v>48</v>
       </c>
       <c r="J21" s="1"/>
-      <c r="L21">
-        <f t="shared" ca="1" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="M21">
-        <f t="shared" ca="1" si="3"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
         <v>16</v>
       </c>
@@ -1704,16 +1548,8 @@
         <v>49</v>
       </c>
       <c r="J22" s="1"/>
-      <c r="L22">
-        <f t="shared" ca="1" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="M22">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
         <v>17</v>
       </c>
@@ -1741,16 +1577,8 @@
         <v>57</v>
       </c>
       <c r="J23" s="1"/>
-      <c r="L23">
-        <f t="shared" ca="1" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="M23">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
         <v>18</v>
       </c>
@@ -1778,16 +1606,8 @@
         <v>38</v>
       </c>
       <c r="J24" s="1"/>
-      <c r="L24">
-        <f t="shared" ca="1" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="M24">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="25" t="s">
         <v>19</v>
       </c>
@@ -1815,16 +1635,8 @@
         <v>51</v>
       </c>
       <c r="J25" s="1"/>
-      <c r="L25">
-        <f t="shared" ca="1" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="M25">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="24" t="s">
         <v>20</v>
       </c>
@@ -1837,16 +1649,8 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="L26">
-        <f t="shared" ca="1" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="M26">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
         <v>21</v>
       </c>
@@ -1874,16 +1678,8 @@
         <v>63</v>
       </c>
       <c r="J27" s="1"/>
-      <c r="L27">
-        <f t="shared" ca="1" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="M27">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="21" t="s">
         <v>22</v>
       </c>
@@ -1911,16 +1707,8 @@
         <v>66</v>
       </c>
       <c r="J28" s="1"/>
-      <c r="L28">
-        <f t="shared" ca="1" si="2"/>
-        <v>34</v>
-      </c>
-      <c r="M28">
-        <f t="shared" ca="1" si="3"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="21" t="s">
         <v>23</v>
       </c>
@@ -1948,16 +1736,8 @@
         <v>37</v>
       </c>
       <c r="J29" s="1"/>
-      <c r="L29">
-        <f t="shared" ca="1" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="M29">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="21" t="s">
         <v>24</v>
       </c>
@@ -1985,16 +1765,8 @@
         <v>48</v>
       </c>
       <c r="J30" s="1"/>
-      <c r="L30">
-        <f t="shared" ca="1" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="M30">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="21" t="s">
         <v>25</v>
       </c>
@@ -2022,16 +1794,8 @@
         <v>36</v>
       </c>
       <c r="J31" s="1"/>
-      <c r="L31">
-        <f t="shared" ca="1" si="2"/>
-        <v>37</v>
-      </c>
-      <c r="M31">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="21" t="s">
         <v>26</v>
       </c>
@@ -2059,16 +1823,8 @@
         <v>59</v>
       </c>
       <c r="J32" s="1"/>
-      <c r="L32">
-        <f t="shared" ca="1" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="M32">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="21" t="s">
         <v>27</v>
       </c>
@@ -2096,16 +1852,8 @@
         <v>60</v>
       </c>
       <c r="J33" s="1"/>
-      <c r="L33">
-        <f t="shared" ca="1" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="M33">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="21" t="s">
         <v>28</v>
       </c>
@@ -2133,16 +1881,8 @@
         <v>41</v>
       </c>
       <c r="J34" s="1"/>
-      <c r="L34">
-        <f t="shared" ca="1" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="M34">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="21" t="s">
         <v>29</v>
       </c>
@@ -2170,16 +1910,8 @@
         <v>71</v>
       </c>
       <c r="J35" s="1"/>
-      <c r="L35">
-        <f t="shared" ca="1" si="2"/>
-        <v>34</v>
-      </c>
-      <c r="M35">
-        <f t="shared" ca="1" si="3"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="21" t="s">
         <v>30</v>
       </c>
@@ -2207,16 +1939,8 @@
         <v>71</v>
       </c>
       <c r="J36" s="1"/>
-      <c r="L36">
-        <f t="shared" ca="1" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="M36">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:10" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="21" t="s">
         <v>31</v>
       </c>
@@ -2244,16 +1968,8 @@
         <v>53</v>
       </c>
       <c r="J37" s="1"/>
-      <c r="L37">
-        <f t="shared" ca="1" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="M37">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="24" t="s">
         <v>32</v>
       </c>
@@ -2281,16 +1997,8 @@
         <v>59</v>
       </c>
       <c r="J38" s="1"/>
-      <c r="L38">
-        <f t="shared" ca="1" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="M38">
-        <f t="shared" ca="1" si="3"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="23" t="s">
         <v>33</v>
       </c>
@@ -2318,16 +2026,8 @@
         <v>70</v>
       </c>
       <c r="J39" s="1"/>
-      <c r="L39">
-        <f t="shared" ca="1" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="M39">
-        <f t="shared" ca="1" si="3"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="25" t="s">
         <v>34</v>
       </c>
@@ -2355,16 +2055,8 @@
         <v>57</v>
       </c>
       <c r="J40" s="1"/>
-      <c r="L40">
-        <f t="shared" ca="1" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="M40">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="24" t="s">
         <v>40</v>
       </c>
@@ -2392,16 +2084,8 @@
         <v>67</v>
       </c>
       <c r="J41" s="1"/>
-      <c r="L41">
-        <f t="shared" ca="1" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="M41">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="20" t="s">
         <v>35</v>
       </c>
@@ -2429,16 +2113,8 @@
         <v>57</v>
       </c>
       <c r="J42" s="1"/>
-      <c r="L42">
-        <f t="shared" ca="1" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="M42">
-        <f t="shared" ca="1" si="3"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="21" t="s">
         <v>36</v>
       </c>
@@ -2466,16 +2142,8 @@
         <v>71</v>
       </c>
       <c r="J43" s="1"/>
-      <c r="L43">
-        <f t="shared" ca="1" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="M43">
-        <f t="shared" ca="1" si="3"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="21" t="s">
         <v>37</v>
       </c>
@@ -2503,16 +2171,8 @@
         <v>57</v>
       </c>
       <c r="J44" s="1"/>
-      <c r="L44">
-        <f t="shared" ca="1" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="M44">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="21" t="s">
         <v>38</v>
       </c>
@@ -2540,16 +2200,8 @@
         <v>72</v>
       </c>
       <c r="J45" s="1"/>
-      <c r="L45">
-        <f t="shared" ca="1" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="M45">
-        <f t="shared" ca="1" si="3"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" s="21" t="s">
         <v>39</v>
       </c>
@@ -2577,16 +2229,8 @@
         <v>40</v>
       </c>
       <c r="J46" s="1"/>
-      <c r="L46">
-        <f t="shared" ca="1" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="M46">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A47" s="21" t="s">
         <v>41</v>
       </c>
@@ -2614,16 +2258,8 @@
         <v>44</v>
       </c>
       <c r="J47" s="1"/>
-      <c r="L47">
-        <f t="shared" ca="1" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="M47">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="21" t="s">
         <v>42</v>
       </c>
@@ -2651,16 +2287,8 @@
         <v>62</v>
       </c>
       <c r="J48" s="1"/>
-      <c r="L48">
-        <f t="shared" ca="1" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="M48">
-        <f t="shared" ca="1" si="3"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="24" t="s">
         <v>43</v>
       </c>
@@ -2673,16 +2301,8 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
-      <c r="L49">
-        <f t="shared" ca="1" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="M49">
-        <f t="shared" ca="1" si="3"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="20" t="s">
         <v>44</v>
       </c>
@@ -2710,16 +2330,8 @@
         <v>44</v>
       </c>
       <c r="J50" s="1"/>
-      <c r="L50">
-        <f t="shared" ca="1" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="M50">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="21" t="s">
         <v>45</v>
       </c>
@@ -2747,16 +2359,8 @@
         <v>51</v>
       </c>
       <c r="J51" s="1"/>
-      <c r="L51">
-        <f t="shared" ca="1" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="M51">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="21" t="s">
         <v>46</v>
       </c>
@@ -2784,16 +2388,8 @@
         <v>44</v>
       </c>
       <c r="J52" s="1"/>
-      <c r="L52">
-        <f t="shared" ca="1" si="2"/>
-        <v>39</v>
-      </c>
-      <c r="M52">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="25" t="s">
         <v>47</v>
       </c>
@@ -2821,16 +2417,8 @@
         <v>63</v>
       </c>
       <c r="J53" s="1"/>
-      <c r="L53">
-        <f t="shared" ca="1" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="M53">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="24" t="s">
         <v>48</v>
       </c>
@@ -2843,16 +2431,8 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
-      <c r="L54">
-        <f t="shared" ca="1" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="M54">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="20" t="s">
         <v>49</v>
       </c>
@@ -2880,16 +2460,8 @@
         <v>47</v>
       </c>
       <c r="J55" s="1"/>
-      <c r="L55">
-        <f t="shared" ca="1" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="M55">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="21" t="s">
         <v>50</v>
       </c>
@@ -2917,16 +2489,8 @@
         <v>56</v>
       </c>
       <c r="J56" s="1"/>
-      <c r="L56">
-        <f t="shared" ca="1" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="M56">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="25" t="s">
         <v>51</v>
       </c>
@@ -2954,16 +2518,8 @@
         <v>37</v>
       </c>
       <c r="J57" s="1"/>
-      <c r="L57">
-        <f t="shared" ca="1" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="M57">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="24" t="s">
         <v>52</v>
       </c>
@@ -2976,16 +2532,8 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
-      <c r="L58">
-        <f t="shared" ca="1" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="M58">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="20" t="s">
         <v>53</v>
       </c>
@@ -3013,16 +2561,8 @@
         <v>55</v>
       </c>
       <c r="J59" s="1"/>
-      <c r="L59">
-        <f t="shared" ca="1" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="M59">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="21" t="s">
         <v>54</v>
       </c>
@@ -3050,16 +2590,8 @@
         <v>58</v>
       </c>
       <c r="J60" s="1"/>
-      <c r="L60">
-        <f t="shared" ca="1" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="M60">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="21" t="s">
         <v>55</v>
       </c>
@@ -3087,16 +2619,8 @@
         <v>58</v>
       </c>
       <c r="J61" s="1"/>
-      <c r="L61">
-        <f t="shared" ca="1" si="2"/>
-        <v>37</v>
-      </c>
-      <c r="M61">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="24" t="s">
         <v>56</v>
       </c>
@@ -3109,16 +2633,8 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
-      <c r="L62">
-        <f t="shared" ca="1" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="M62">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="20" t="s">
         <v>57</v>
       </c>
@@ -3146,16 +2662,8 @@
         <v>62</v>
       </c>
       <c r="J63" s="1"/>
-      <c r="L63">
-        <f t="shared" ca="1" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="M63">
-        <f t="shared" ca="1" si="3"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="21" t="s">
         <v>58</v>
       </c>
@@ -3183,16 +2691,8 @@
         <v>46</v>
       </c>
       <c r="J64" s="1"/>
-      <c r="L64">
-        <f t="shared" ca="1" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="M64">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="24" t="s">
         <v>59</v>
       </c>
@@ -3205,16 +2705,8 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
-      <c r="L65">
-        <f t="shared" ca="1" si="2"/>
-        <v>37</v>
-      </c>
-      <c r="M65">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="20" t="s">
         <v>60</v>
       </c>
@@ -3242,16 +2734,8 @@
         <v>56</v>
       </c>
       <c r="J66" s="1"/>
-      <c r="L66">
-        <f t="shared" ca="1" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="M66">
-        <f t="shared" ca="1" si="3"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="25" t="s">
         <v>61</v>
       </c>
@@ -3279,16 +2763,8 @@
         <v>67</v>
       </c>
       <c r="J67" s="1"/>
-      <c r="L67">
-        <f t="shared" ca="1" si="2"/>
-        <v>39</v>
-      </c>
-      <c r="M67">
-        <f t="shared" ca="1" si="3"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="24" t="s">
         <v>62</v>
       </c>
@@ -3301,16 +2777,8 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
-      <c r="L68">
-        <f t="shared" ca="1" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="M68">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" s="20" t="s">
         <v>63</v>
       </c>
@@ -3338,16 +2806,8 @@
         <v>59</v>
       </c>
       <c r="J69" s="1"/>
-      <c r="L69">
-        <f t="shared" ca="1" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="M69">
-        <f t="shared" ca="1" si="3"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="18" t="s">
         <v>64</v>
       </c>
@@ -3360,16 +2820,8 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
-      <c r="L70">
-        <f t="shared" ref="L70:L83" ca="1" si="4">RANDBETWEEN(16,40)</f>
-        <v>27</v>
-      </c>
-      <c r="M70">
-        <f t="shared" ref="M70:M82" ca="1" si="5">RANDBETWEEN(5,10)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="20" t="s">
         <v>65</v>
       </c>
@@ -3393,20 +2845,12 @@
         <v>7</v>
       </c>
       <c r="I71" s="1">
-        <f t="shared" ref="I70:I82" si="6">SUM(E71:F71)</f>
+        <f t="shared" ref="I71:I81" si="2">SUM(E71:F71)</f>
         <v>65</v>
       </c>
       <c r="J71" s="1"/>
-      <c r="L71">
-        <f t="shared" ca="1" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="M71">
-        <f t="shared" ca="1" si="5"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="21" t="s">
         <v>82</v>
       </c>
@@ -3430,20 +2874,12 @@
         <v>7</v>
       </c>
       <c r="I72" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="J72" s="1"/>
-      <c r="L72">
-        <f t="shared" ca="1" si="4"/>
-        <v>27</v>
-      </c>
-      <c r="M72">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="25" t="s">
         <v>83</v>
       </c>
@@ -3467,20 +2903,12 @@
         <v>5</v>
       </c>
       <c r="I73" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="J73" s="1"/>
-      <c r="L73">
-        <f t="shared" ca="1" si="4"/>
-        <v>39</v>
-      </c>
-      <c r="M73">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="24" t="s">
         <v>84</v>
       </c>
@@ -3502,20 +2930,12 @@
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="J74" s="1"/>
-      <c r="L74">
-        <f t="shared" ca="1" si="4"/>
-        <v>34</v>
-      </c>
-      <c r="M74">
-        <f t="shared" ca="1" si="5"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="27" t="s">
         <v>87</v>
       </c>
@@ -3532,16 +2952,8 @@
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
-      <c r="L75">
-        <f t="shared" ca="1" si="4"/>
-        <v>17</v>
-      </c>
-      <c r="M75">
-        <f t="shared" ca="1" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A76" s="28" t="s">
         <v>88</v>
       </c>
@@ -3560,16 +2972,8 @@
       <c r="J76" s="1">
         <v>40</v>
       </c>
-      <c r="L76">
-        <f t="shared" ca="1" si="4"/>
-        <v>31</v>
-      </c>
-      <c r="M76">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="29" t="s">
         <v>89</v>
       </c>
@@ -3588,16 +2992,8 @@
       <c r="J77" s="1">
         <v>40</v>
       </c>
-      <c r="L77">
-        <f t="shared" ca="1" si="4"/>
-        <v>36</v>
-      </c>
-      <c r="M77">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="30" t="s">
         <v>90</v>
       </c>
@@ -3616,16 +3012,8 @@
       <c r="J78" s="1">
         <v>56</v>
       </c>
-      <c r="L78">
-        <f t="shared" ca="1" si="4"/>
-        <v>36</v>
-      </c>
-      <c r="M78">
-        <f t="shared" ca="1" si="5"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="27" t="s">
         <v>93</v>
       </c>
@@ -3642,16 +3030,8 @@
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
-      <c r="L79">
-        <f t="shared" ca="1" si="4"/>
-        <v>28</v>
-      </c>
-      <c r="M79">
-        <f t="shared" ca="1" si="5"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:10" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A80" s="20" t="s">
         <v>91</v>
       </c>
@@ -3670,16 +3050,8 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
-      <c r="L80">
-        <f t="shared" ca="1" si="4"/>
-        <v>19</v>
-      </c>
-      <c r="M80">
-        <f t="shared" ca="1" si="5"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="21" t="s">
         <v>92</v>
       </c>
@@ -3705,20 +3077,12 @@
         <v>9</v>
       </c>
       <c r="I81" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="J81" s="1"/>
-      <c r="L81">
-        <f t="shared" ca="1" si="4"/>
-        <v>23</v>
-      </c>
-      <c r="M81">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>94</v>
       </c>
@@ -3735,182 +3099,54 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
-      <c r="L82">
-        <f t="shared" ca="1" si="4"/>
-        <v>38</v>
-      </c>
-      <c r="M82">
-        <f t="shared" ca="1" si="5"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A83" s="31"/>
-      <c r="B83" s="32"/>
-      <c r="C83" s="32"/>
-      <c r="D83" s="32"/>
-      <c r="E83" s="32"/>
-      <c r="F83" s="32"/>
-      <c r="G83" s="32"/>
-      <c r="H83" s="32"/>
-      <c r="I83" s="32"/>
-      <c r="J83" s="32"/>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A84" s="31"/>
-      <c r="B84" s="33"/>
-      <c r="C84" s="33"/>
-      <c r="D84" s="33"/>
-      <c r="E84" s="33"/>
-      <c r="F84" s="33"/>
-      <c r="G84" s="33"/>
-      <c r="H84" s="33"/>
-      <c r="I84" s="33"/>
-      <c r="J84" s="33"/>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A85" s="31"/>
-      <c r="B85" s="33"/>
-      <c r="C85" s="33"/>
-      <c r="D85" s="33"/>
-      <c r="E85" s="33"/>
-      <c r="F85" s="33"/>
-      <c r="G85" s="33"/>
-      <c r="H85" s="33"/>
-      <c r="I85" s="33"/>
-      <c r="J85" s="33"/>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A86" s="31"/>
-      <c r="B86" s="33"/>
-      <c r="C86" s="33"/>
-      <c r="D86" s="33"/>
-      <c r="E86" s="33"/>
-      <c r="F86" s="33"/>
-      <c r="G86" s="33"/>
-      <c r="H86" s="33"/>
-      <c r="I86" s="33"/>
-      <c r="J86" s="33"/>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A87" s="31"/>
-      <c r="B87" s="33"/>
-      <c r="C87" s="33"/>
-      <c r="D87" s="33"/>
-      <c r="E87" s="33"/>
-      <c r="F87" s="33"/>
-      <c r="G87" s="33"/>
-      <c r="H87" s="33"/>
-      <c r="I87" s="33"/>
-      <c r="J87" s="33"/>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A88" s="31"/>
-      <c r="B88" s="33"/>
-      <c r="C88" s="33"/>
-      <c r="D88" s="33"/>
-      <c r="E88" s="33"/>
-      <c r="F88" s="33"/>
-      <c r="G88" s="33"/>
-      <c r="H88" s="33"/>
-      <c r="I88" s="33"/>
-      <c r="J88" s="33"/>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A89" s="31"/>
-      <c r="B89" s="33"/>
-      <c r="C89" s="33"/>
-      <c r="D89" s="33"/>
-      <c r="E89" s="33"/>
-      <c r="F89" s="33"/>
-      <c r="G89" s="33"/>
-      <c r="H89" s="33"/>
-      <c r="I89" s="33"/>
-      <c r="J89" s="33"/>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A90" s="31"/>
-      <c r="B90" s="33"/>
-      <c r="C90" s="33"/>
-      <c r="D90" s="33"/>
-      <c r="E90" s="33"/>
-      <c r="F90" s="33"/>
-      <c r="G90" s="33"/>
-      <c r="H90" s="33"/>
-      <c r="I90" s="33"/>
-      <c r="J90" s="33"/>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A91" s="34"/>
-      <c r="B91" s="33"/>
-      <c r="C91" s="33"/>
-      <c r="D91" s="33"/>
-      <c r="E91" s="33"/>
-      <c r="F91" s="33"/>
-      <c r="G91" s="33"/>
-      <c r="H91" s="33"/>
-      <c r="I91" s="33"/>
-      <c r="J91" s="33"/>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A92" s="34"/>
-      <c r="B92" s="33"/>
-      <c r="C92" s="33"/>
-      <c r="D92" s="33"/>
-      <c r="E92" s="33"/>
-      <c r="F92" s="33"/>
-      <c r="G92" s="33"/>
-      <c r="H92" s="33"/>
-      <c r="I92" s="33"/>
-      <c r="J92" s="33"/>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A93" s="34"/>
-      <c r="B93" s="33"/>
-      <c r="C93" s="33"/>
-      <c r="D93" s="33"/>
-      <c r="E93" s="33"/>
-      <c r="F93" s="33"/>
-      <c r="G93" s="33"/>
-      <c r="H93" s="33"/>
-      <c r="I93" s="33"/>
-      <c r="J93" s="33"/>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A94" s="34"/>
-      <c r="B94" s="33"/>
-      <c r="C94" s="33"/>
-      <c r="D94" s="33"/>
-      <c r="E94" s="33"/>
-      <c r="F94" s="33"/>
-      <c r="G94" s="33"/>
-      <c r="H94" s="33"/>
-      <c r="I94" s="33"/>
-      <c r="J94" s="33"/>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A95" s="34"/>
-      <c r="B95" s="33"/>
-      <c r="C95" s="33"/>
-      <c r="D95" s="33"/>
-      <c r="E95" s="33"/>
-      <c r="F95" s="33"/>
-      <c r="G95" s="33"/>
-      <c r="H95" s="33"/>
-      <c r="I95" s="33"/>
-      <c r="J95" s="33"/>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A96" s="33"/>
-      <c r="B96" s="33"/>
-      <c r="C96" s="33"/>
-      <c r="D96" s="33"/>
-      <c r="E96" s="33"/>
-      <c r="F96" s="33"/>
-      <c r="G96" s="33"/>
-      <c r="H96" s="33"/>
-      <c r="I96" s="33"/>
-      <c r="J96" s="33"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A83" s="7"/>
+      <c r="B83" s="31"/>
+      <c r="C83" s="31"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="31"/>
+      <c r="G83" s="31"/>
+      <c r="H83" s="31"/>
+      <c r="I83" s="31"/>
+      <c r="J83" s="31"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A84" s="7"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A85" s="7"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A86" s="7"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A87" s="7"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A88" s="7"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A89" s="7"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A90" s="7"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A91" s="32"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A92" s="32"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A93" s="32"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A94" s="32"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A95" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Лаб1.xlsx
+++ b/Лаб1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiril\OneDrive\Desktop\Фоменко\Fomenko\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF25F581-291B-4738-BDF4-7ACED77700E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3474F844-84DE-41F1-871D-DA35250517DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="110">
   <si>
     <t>Список работ</t>
   </si>
@@ -342,6 +342,30 @@
   </si>
   <si>
     <t>Часы работ</t>
+  </si>
+  <si>
+    <t>итого  часов</t>
+  </si>
+  <si>
+    <t>стоимость с\с</t>
+  </si>
+  <si>
+    <t>стоимость ком.</t>
+  </si>
+  <si>
+    <t>маржа</t>
+  </si>
+  <si>
+    <t>Итого часов</t>
+  </si>
+  <si>
+    <t>Стоимость С\С</t>
+  </si>
+  <si>
+    <t>стоим. Ком.</t>
+  </si>
+  <si>
+    <t>Маржа</t>
   </si>
 </sst>
 </file>
@@ -396,7 +420,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -409,8 +433,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -596,14 +626,173 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -612,7 +801,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -648,9 +837,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -699,9 +885,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -713,7 +896,70 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -998,16 +1244,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="45.77734375" customWidth="1"/>
     <col min="2" max="2" width="20.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" customWidth="1"/>
     <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" customWidth="1"/>
+    <col min="9" max="9" width="18.21875" customWidth="1"/>
     <col min="10" max="10" width="21.21875" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" customWidth="1"/>
+    <col min="13" max="14" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1038,14 +1292,24 @@
       <c r="I1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
+      <c r="K1" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="L1" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="M1" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="N1" s="54" t="s">
+        <v>109</v>
+      </c>
       <c r="P1">
         <f t="shared" ref="P1" ca="1" si="0">RANDBETWEEN(5,10)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1076,60 +1340,72 @@
       <c r="I2" s="9">
         <v>1185</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="41">
         <v>847</v>
       </c>
+      <c r="K2" s="46"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="47"/>
     </row>
     <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B3" s="31">
         <v>3100</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="31">
         <v>4500</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D3" s="31">
         <v>3500</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="31">
         <v>4500</v>
       </c>
-      <c r="F3" s="33">
+      <c r="F3" s="31">
         <v>4500</v>
       </c>
-      <c r="G3" s="33">
+      <c r="G3" s="31">
         <v>4500</v>
       </c>
-      <c r="H3" s="33">
+      <c r="H3" s="31">
         <v>3500</v>
       </c>
-      <c r="I3" s="33">
+      <c r="I3" s="31">
         <v>2500</v>
       </c>
-      <c r="J3" s="33">
+      <c r="J3" s="42">
         <v>2500</v>
       </c>
+      <c r="K3" s="46"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="47"/>
     </row>
     <row r="4" spans="1:16" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="36"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="51"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>85</v>
       </c>
       <c r="B5" s="13">
@@ -1144,10 +1420,26 @@
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="58">
+        <f>SUM(B5:J5)</f>
+        <v>25</v>
+      </c>
+      <c r="L5" s="10">
+        <f>B5*$B$2+C5*$C$2+D5*$D$2+E5*$E$2+F5*$F$2+G5*$G$2+H5*$H$2+I5*$I$2+J5*$J$2</f>
+        <v>43638</v>
+      </c>
+      <c r="M5" s="10">
+        <f>B5*$B$3+C5*$C$3+D5*$D$3+E5*$E$3+F5*$F$3+G5*$G$3+H5*$H$3+I5*$I$3+J5*$J$3</f>
+        <v>104100</v>
+      </c>
+      <c r="N5" s="59">
+        <f>M5-L5</f>
+        <v>60462</v>
+      </c>
     </row>
     <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>86</v>
       </c>
       <c r="B6" s="1">
@@ -1173,10 +1465,26 @@
         <f t="shared" ref="I6:I69" si="1">SUM(E6:F6)</f>
         <v>57</v>
       </c>
-      <c r="J6" s="1"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="46">
+        <f t="shared" ref="K6:K69" si="2">SUM(B6:J6)</f>
+        <v>183</v>
+      </c>
+      <c r="L6" s="9">
+        <f t="shared" ref="L6:L69" si="3">B6*$B$2+C6*$C$2+D6*$D$2+E6*$E$2+F6*$F$2+G6*$G$2+H6*$H$2+I6*$I$2+J6*$J$2</f>
+        <v>266578</v>
+      </c>
+      <c r="M6" s="9">
+        <f t="shared" ref="M6:M69" si="4">B6*$B$3+C6*$C$3+D6*$D$3+E6*$E$3+F6*$F$3+G6*$G$3+H6*$H$3+I6*$I$3+J6*$J$3</f>
+        <v>692300</v>
+      </c>
+      <c r="N6" s="48">
+        <f t="shared" ref="N6:N69" si="5">M6-L6</f>
+        <v>425722</v>
+      </c>
     </row>
     <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="1"/>
@@ -1187,10 +1495,14 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="48"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="1">
@@ -1216,10 +1528,26 @@
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="J8" s="1"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="46">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="L8" s="9">
+        <f t="shared" si="3"/>
+        <v>200763</v>
+      </c>
+      <c r="M8" s="9">
+        <f t="shared" si="4"/>
+        <v>529000</v>
+      </c>
+      <c r="N8" s="48">
+        <f t="shared" si="5"/>
+        <v>328237</v>
+      </c>
     </row>
     <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="1">
@@ -1245,10 +1573,26 @@
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="J9" s="1"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="46">
+        <f t="shared" si="2"/>
+        <v>175</v>
+      </c>
+      <c r="L9" s="9">
+        <f t="shared" si="3"/>
+        <v>248730</v>
+      </c>
+      <c r="M9" s="9">
+        <f t="shared" si="4"/>
+        <v>643900</v>
+      </c>
+      <c r="N9" s="48">
+        <f t="shared" si="5"/>
+        <v>395170</v>
+      </c>
     </row>
     <row r="10" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="21" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1"/>
@@ -1259,10 +1603,14 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="48"/>
     </row>
     <row r="11" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="22" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="1">
@@ -1288,10 +1636,26 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="J11" s="1"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="46">
+        <f t="shared" si="2"/>
+        <v>131</v>
+      </c>
+      <c r="L11" s="9">
+        <f t="shared" si="3"/>
+        <v>187574</v>
+      </c>
+      <c r="M11" s="9">
+        <f t="shared" si="4"/>
+        <v>485100</v>
+      </c>
+      <c r="N11" s="48">
+        <f t="shared" si="5"/>
+        <v>297526</v>
+      </c>
     </row>
     <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="23" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="1"/>
@@ -1302,10 +1666,14 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="48"/>
     </row>
     <row r="13" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="1">
@@ -1331,10 +1699,26 @@
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="J13" s="1"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="46">
+        <f t="shared" si="2"/>
+        <v>136</v>
+      </c>
+      <c r="L13" s="9">
+        <f t="shared" si="3"/>
+        <v>195428</v>
+      </c>
+      <c r="M13" s="9">
+        <f t="shared" si="4"/>
+        <v>512000</v>
+      </c>
+      <c r="N13" s="48">
+        <f t="shared" si="5"/>
+        <v>316572</v>
+      </c>
     </row>
     <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="24" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="1">
@@ -1360,10 +1744,26 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="J14" s="1"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="46">
+        <f t="shared" si="2"/>
+        <v>143</v>
+      </c>
+      <c r="L14" s="9">
+        <f t="shared" si="3"/>
+        <v>204509</v>
+      </c>
+      <c r="M14" s="9">
+        <f t="shared" si="4"/>
+        <v>526700</v>
+      </c>
+      <c r="N14" s="48">
+        <f t="shared" si="5"/>
+        <v>322191</v>
+      </c>
     </row>
     <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="1"/>
@@ -1374,10 +1774,14 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="48"/>
     </row>
     <row r="16" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="20" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="1">
@@ -1403,10 +1807,26 @@
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="24" t="s">
+      <c r="J16" s="28"/>
+      <c r="K16" s="46">
+        <f t="shared" si="2"/>
+        <v>188</v>
+      </c>
+      <c r="L16" s="9">
+        <f t="shared" si="3"/>
+        <v>260050</v>
+      </c>
+      <c r="M16" s="9">
+        <f t="shared" si="4"/>
+        <v>687200</v>
+      </c>
+      <c r="N16" s="48">
+        <f t="shared" si="5"/>
+        <v>427150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="23" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="1"/>
@@ -1417,10 +1837,14 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="21" t="s">
+      <c r="J17" s="28"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="48"/>
+    </row>
+    <row r="18" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="20" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="1">
@@ -1446,10 +1870,26 @@
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="26" t="s">
+      <c r="J18" s="28"/>
+      <c r="K18" s="46">
+        <f t="shared" si="2"/>
+        <v>173</v>
+      </c>
+      <c r="L18" s="9">
+        <f t="shared" si="3"/>
+        <v>251775</v>
+      </c>
+      <c r="M18" s="9">
+        <f t="shared" si="4"/>
+        <v>645900</v>
+      </c>
+      <c r="N18" s="48">
+        <f t="shared" si="5"/>
+        <v>394125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="25" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="1"/>
@@ -1460,10 +1900,14 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="21" t="s">
+      <c r="J19" s="28"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="48"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="1">
@@ -1489,10 +1933,26 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="21" t="s">
+      <c r="J20" s="28"/>
+      <c r="K20" s="46">
+        <f t="shared" si="2"/>
+        <v>159</v>
+      </c>
+      <c r="L20" s="9">
+        <f t="shared" si="3"/>
+        <v>233998</v>
+      </c>
+      <c r="M20" s="9">
+        <f t="shared" si="4"/>
+        <v>605500</v>
+      </c>
+      <c r="N20" s="48">
+        <f t="shared" si="5"/>
+        <v>371502</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="1">
@@ -1518,10 +1978,26 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="21" t="s">
+      <c r="J21" s="28"/>
+      <c r="K21" s="46">
+        <f t="shared" si="2"/>
+        <v>149</v>
+      </c>
+      <c r="L21" s="9">
+        <f t="shared" si="3"/>
+        <v>210832</v>
+      </c>
+      <c r="M21" s="9">
+        <f t="shared" si="4"/>
+        <v>553300</v>
+      </c>
+      <c r="N21" s="48">
+        <f t="shared" si="5"/>
+        <v>342468</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="20" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="1">
@@ -1547,10 +2023,26 @@
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="21" t="s">
+      <c r="J22" s="28"/>
+      <c r="K22" s="46">
+        <f t="shared" si="2"/>
+        <v>164</v>
+      </c>
+      <c r="L22" s="9">
+        <f t="shared" si="3"/>
+        <v>239138</v>
+      </c>
+      <c r="M22" s="9">
+        <f t="shared" si="4"/>
+        <v>620000</v>
+      </c>
+      <c r="N22" s="48">
+        <f t="shared" si="5"/>
+        <v>380862</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="1">
@@ -1576,10 +2068,26 @@
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="21" t="s">
+      <c r="J23" s="28"/>
+      <c r="K23" s="46">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="L23" s="9">
+        <f t="shared" si="3"/>
+        <v>226180</v>
+      </c>
+      <c r="M23" s="9">
+        <f t="shared" si="4"/>
+        <v>593000</v>
+      </c>
+      <c r="N23" s="48">
+        <f t="shared" si="5"/>
+        <v>366820</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B24" s="1">
@@ -1605,10 +2113,26 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="25" t="s">
+      <c r="J24" s="28"/>
+      <c r="K24" s="46">
+        <f t="shared" si="2"/>
+        <v>142</v>
+      </c>
+      <c r="L24" s="9">
+        <f t="shared" si="3"/>
+        <v>211047</v>
+      </c>
+      <c r="M24" s="9">
+        <f t="shared" si="4"/>
+        <v>548200</v>
+      </c>
+      <c r="N24" s="48">
+        <f t="shared" si="5"/>
+        <v>337153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="24" t="s">
         <v>19</v>
       </c>
       <c r="B25" s="1">
@@ -1634,10 +2158,26 @@
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="24" t="s">
+      <c r="J25" s="28"/>
+      <c r="K25" s="46">
+        <f t="shared" si="2"/>
+        <v>149</v>
+      </c>
+      <c r="L25" s="9">
+        <f t="shared" si="3"/>
+        <v>214578</v>
+      </c>
+      <c r="M25" s="9">
+        <f t="shared" si="4"/>
+        <v>555100</v>
+      </c>
+      <c r="N25" s="48">
+        <f t="shared" si="5"/>
+        <v>340522</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="23" t="s">
         <v>20</v>
       </c>
       <c r="B26" s="1"/>
@@ -1648,10 +2188,26 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="20" t="s">
+      <c r="J26" s="28"/>
+      <c r="K26" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="48">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="19" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="1">
@@ -1677,10 +2233,26 @@
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="21" t="s">
+      <c r="J27" s="28"/>
+      <c r="K27" s="46">
+        <f t="shared" si="2"/>
+        <v>191</v>
+      </c>
+      <c r="L27" s="9">
+        <f t="shared" si="3"/>
+        <v>273335</v>
+      </c>
+      <c r="M27" s="9">
+        <f t="shared" si="4"/>
+        <v>714700</v>
+      </c>
+      <c r="N27" s="48">
+        <f t="shared" si="5"/>
+        <v>441365</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="20" t="s">
         <v>22</v>
       </c>
       <c r="B28" s="1">
@@ -1706,10 +2278,26 @@
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="21" t="s">
+      <c r="J28" s="28"/>
+      <c r="K28" s="46">
+        <f t="shared" si="2"/>
+        <v>191</v>
+      </c>
+      <c r="L28" s="9">
+        <f t="shared" si="3"/>
+        <v>266638</v>
+      </c>
+      <c r="M28" s="9">
+        <f t="shared" si="4"/>
+        <v>707700</v>
+      </c>
+      <c r="N28" s="48">
+        <f t="shared" si="5"/>
+        <v>441062</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="20" t="s">
         <v>23</v>
       </c>
       <c r="B29" s="1">
@@ -1735,10 +2323,26 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="21" t="s">
+      <c r="J29" s="28"/>
+      <c r="K29" s="46">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
+      <c r="L29" s="9">
+        <f t="shared" si="3"/>
+        <v>182538</v>
+      </c>
+      <c r="M29" s="9">
+        <f t="shared" si="4"/>
+        <v>480800</v>
+      </c>
+      <c r="N29" s="48">
+        <f t="shared" si="5"/>
+        <v>298262</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B30" s="1">
@@ -1764,10 +2368,26 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="21" t="s">
+      <c r="J30" s="28"/>
+      <c r="K30" s="46">
+        <f t="shared" si="2"/>
+        <v>146</v>
+      </c>
+      <c r="L30" s="9">
+        <f t="shared" si="3"/>
+        <v>210449</v>
+      </c>
+      <c r="M30" s="9">
+        <f t="shared" si="4"/>
+        <v>541800</v>
+      </c>
+      <c r="N30" s="48">
+        <f t="shared" si="5"/>
+        <v>331351</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="20" t="s">
         <v>25</v>
       </c>
       <c r="B31" s="1">
@@ -1793,10 +2413,26 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="21" t="s">
+      <c r="J31" s="28"/>
+      <c r="K31" s="46">
+        <f t="shared" si="2"/>
+        <v>141</v>
+      </c>
+      <c r="L31" s="9">
+        <f t="shared" si="3"/>
+        <v>208489</v>
+      </c>
+      <c r="M31" s="9">
+        <f t="shared" si="4"/>
+        <v>540900</v>
+      </c>
+      <c r="N31" s="48">
+        <f t="shared" si="5"/>
+        <v>332411</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="20" t="s">
         <v>26</v>
       </c>
       <c r="B32" s="1">
@@ -1822,10 +2458,26 @@
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="21" t="s">
+      <c r="J32" s="28"/>
+      <c r="K32" s="46">
+        <f t="shared" si="2"/>
+        <v>183</v>
+      </c>
+      <c r="L32" s="9">
+        <f t="shared" si="3"/>
+        <v>261861</v>
+      </c>
+      <c r="M32" s="9">
+        <f t="shared" si="4"/>
+        <v>685900</v>
+      </c>
+      <c r="N32" s="48">
+        <f t="shared" si="5"/>
+        <v>424039</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="20" t="s">
         <v>27</v>
       </c>
       <c r="B33" s="1">
@@ -1851,10 +2503,26 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="21" t="s">
+      <c r="J33" s="28"/>
+      <c r="K33" s="46">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+      <c r="L33" s="9">
+        <f t="shared" si="3"/>
+        <v>259636</v>
+      </c>
+      <c r="M33" s="9">
+        <f t="shared" si="4"/>
+        <v>674600</v>
+      </c>
+      <c r="N33" s="48">
+        <f t="shared" si="5"/>
+        <v>414964</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="20" t="s">
         <v>28</v>
       </c>
       <c r="B34" s="1">
@@ -1880,10 +2548,26 @@
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="21" t="s">
+      <c r="J34" s="28"/>
+      <c r="K34" s="46">
+        <f t="shared" si="2"/>
+        <v>134</v>
+      </c>
+      <c r="L34" s="9">
+        <f t="shared" si="3"/>
+        <v>193208</v>
+      </c>
+      <c r="M34" s="9">
+        <f t="shared" si="4"/>
+        <v>503400</v>
+      </c>
+      <c r="N34" s="48">
+        <f t="shared" si="5"/>
+        <v>310192</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" s="20" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="1">
@@ -1909,10 +2593,26 @@
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="21" t="s">
+      <c r="J35" s="28"/>
+      <c r="K35" s="46">
+        <f t="shared" si="2"/>
+        <v>196</v>
+      </c>
+      <c r="L35" s="9">
+        <f t="shared" si="3"/>
+        <v>277885</v>
+      </c>
+      <c r="M35" s="9">
+        <f t="shared" si="4"/>
+        <v>722800</v>
+      </c>
+      <c r="N35" s="48">
+        <f t="shared" si="5"/>
+        <v>444915</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="20" t="s">
         <v>30</v>
       </c>
       <c r="B36" s="1">
@@ -1938,10 +2638,26 @@
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="1:10" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="21" t="s">
+      <c r="J36" s="28"/>
+      <c r="K36" s="46">
+        <f t="shared" si="2"/>
+        <v>203</v>
+      </c>
+      <c r="L36" s="9">
+        <f t="shared" si="3"/>
+        <v>290942</v>
+      </c>
+      <c r="M36" s="9">
+        <f t="shared" si="4"/>
+        <v>755700</v>
+      </c>
+      <c r="N36" s="48">
+        <f t="shared" si="5"/>
+        <v>464758</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="20" t="s">
         <v>31</v>
       </c>
       <c r="B37" s="1">
@@ -1967,10 +2683,26 @@
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="24" t="s">
+      <c r="J37" s="28"/>
+      <c r="K37" s="46">
+        <f t="shared" si="2"/>
+        <v>166</v>
+      </c>
+      <c r="L37" s="9">
+        <f t="shared" si="3"/>
+        <v>233181</v>
+      </c>
+      <c r="M37" s="9">
+        <f t="shared" si="4"/>
+        <v>618400</v>
+      </c>
+      <c r="N37" s="48">
+        <f t="shared" si="5"/>
+        <v>385219</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="23" t="s">
         <v>32</v>
       </c>
       <c r="B38" s="1">
@@ -1996,10 +2728,26 @@
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="J38" s="1"/>
-    </row>
-    <row r="39" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="23" t="s">
+      <c r="J38" s="28"/>
+      <c r="K38" s="46">
+        <f t="shared" si="2"/>
+        <v>176</v>
+      </c>
+      <c r="L38" s="9">
+        <f t="shared" si="3"/>
+        <v>248290</v>
+      </c>
+      <c r="M38" s="9">
+        <f t="shared" si="4"/>
+        <v>655200</v>
+      </c>
+      <c r="N38" s="48">
+        <f t="shared" si="5"/>
+        <v>406910</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="22" t="s">
         <v>33</v>
       </c>
       <c r="B39" s="1">
@@ -2025,10 +2773,26 @@
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="J39" s="1"/>
-    </row>
-    <row r="40" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="25" t="s">
+      <c r="J39" s="28"/>
+      <c r="K39" s="46">
+        <f t="shared" si="2"/>
+        <v>207</v>
+      </c>
+      <c r="L39" s="9">
+        <f t="shared" si="3"/>
+        <v>295539</v>
+      </c>
+      <c r="M39" s="9">
+        <f t="shared" si="4"/>
+        <v>768500</v>
+      </c>
+      <c r="N39" s="48">
+        <f t="shared" si="5"/>
+        <v>472961</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="24" t="s">
         <v>34</v>
       </c>
       <c r="B40" s="1">
@@ -2054,10 +2818,26 @@
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="J40" s="1"/>
-    </row>
-    <row r="41" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="24" t="s">
+      <c r="J40" s="28"/>
+      <c r="K40" s="46">
+        <f t="shared" si="2"/>
+        <v>177</v>
+      </c>
+      <c r="L40" s="9">
+        <f t="shared" si="3"/>
+        <v>256350</v>
+      </c>
+      <c r="M40" s="9">
+        <f t="shared" si="4"/>
+        <v>669100</v>
+      </c>
+      <c r="N40" s="48">
+        <f t="shared" si="5"/>
+        <v>412750</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="23" t="s">
         <v>40</v>
       </c>
       <c r="B41" s="1">
@@ -2083,10 +2863,26 @@
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="J41" s="1"/>
-    </row>
-    <row r="42" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="20" t="s">
+      <c r="J41" s="28"/>
+      <c r="K41" s="46">
+        <f t="shared" si="2"/>
+        <v>194</v>
+      </c>
+      <c r="L41" s="9">
+        <f t="shared" si="3"/>
+        <v>277223</v>
+      </c>
+      <c r="M41" s="9">
+        <f t="shared" si="4"/>
+        <v>723200</v>
+      </c>
+      <c r="N41" s="48">
+        <f t="shared" si="5"/>
+        <v>445977</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="19" t="s">
         <v>35</v>
       </c>
       <c r="B42" s="1">
@@ -2112,10 +2908,26 @@
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="J42" s="1"/>
-    </row>
-    <row r="43" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A43" s="21" t="s">
+      <c r="J42" s="28"/>
+      <c r="K42" s="46">
+        <f t="shared" si="2"/>
+        <v>161</v>
+      </c>
+      <c r="L42" s="9">
+        <f t="shared" si="3"/>
+        <v>228274</v>
+      </c>
+      <c r="M42" s="9">
+        <f t="shared" si="4"/>
+        <v>593300</v>
+      </c>
+      <c r="N42" s="48">
+        <f t="shared" si="5"/>
+        <v>365026</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="20" t="s">
         <v>36</v>
       </c>
       <c r="B43" s="1">
@@ -2141,10 +2953,26 @@
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="J43" s="1"/>
-    </row>
-    <row r="44" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="21" t="s">
+      <c r="J43" s="28"/>
+      <c r="K43" s="46">
+        <f t="shared" si="2"/>
+        <v>209</v>
+      </c>
+      <c r="L43" s="9">
+        <f t="shared" si="3"/>
+        <v>300165</v>
+      </c>
+      <c r="M43" s="9">
+        <f t="shared" si="4"/>
+        <v>786500</v>
+      </c>
+      <c r="N43" s="48">
+        <f t="shared" si="5"/>
+        <v>486335</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="20" t="s">
         <v>37</v>
       </c>
       <c r="B44" s="1">
@@ -2170,10 +2998,26 @@
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="J44" s="1"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="21" t="s">
+      <c r="J44" s="28"/>
+      <c r="K44" s="46">
+        <f t="shared" si="2"/>
+        <v>179</v>
+      </c>
+      <c r="L44" s="9">
+        <f t="shared" si="3"/>
+        <v>257138</v>
+      </c>
+      <c r="M44" s="9">
+        <f t="shared" si="4"/>
+        <v>669900</v>
+      </c>
+      <c r="N44" s="48">
+        <f t="shared" si="5"/>
+        <v>412762</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" s="20" t="s">
         <v>38</v>
       </c>
       <c r="B45" s="1">
@@ -2199,10 +3043,26 @@
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="J45" s="1"/>
-    </row>
-    <row r="46" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A46" s="21" t="s">
+      <c r="J45" s="28"/>
+      <c r="K45" s="46">
+        <f t="shared" si="2"/>
+        <v>206</v>
+      </c>
+      <c r="L45" s="9">
+        <f t="shared" si="3"/>
+        <v>292755</v>
+      </c>
+      <c r="M45" s="9">
+        <f t="shared" si="4"/>
+        <v>763800</v>
+      </c>
+      <c r="N45" s="48">
+        <f t="shared" si="5"/>
+        <v>471045</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A46" s="20" t="s">
         <v>39</v>
       </c>
       <c r="B46" s="1">
@@ -2228,10 +3088,26 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="J46" s="1"/>
-    </row>
-    <row r="47" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A47" s="21" t="s">
+      <c r="J46" s="28"/>
+      <c r="K46" s="46">
+        <f t="shared" si="2"/>
+        <v>145</v>
+      </c>
+      <c r="L46" s="9">
+        <f t="shared" si="3"/>
+        <v>209508</v>
+      </c>
+      <c r="M46" s="9">
+        <f t="shared" si="4"/>
+        <v>554100</v>
+      </c>
+      <c r="N46" s="48">
+        <f t="shared" si="5"/>
+        <v>344592</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="20" t="s">
         <v>41</v>
       </c>
       <c r="B47" s="1">
@@ -2257,10 +3133,26 @@
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="J47" s="1"/>
-    </row>
-    <row r="48" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="21" t="s">
+      <c r="J47" s="28"/>
+      <c r="K47" s="46">
+        <f t="shared" si="2"/>
+        <v>154</v>
+      </c>
+      <c r="L47" s="9">
+        <f t="shared" si="3"/>
+        <v>226874</v>
+      </c>
+      <c r="M47" s="9">
+        <f t="shared" si="4"/>
+        <v>586400</v>
+      </c>
+      <c r="N47" s="48">
+        <f t="shared" si="5"/>
+        <v>359526</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="20" t="s">
         <v>42</v>
       </c>
       <c r="B48" s="1">
@@ -2286,10 +3178,26 @@
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="J48" s="1"/>
-    </row>
-    <row r="49" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="24" t="s">
+      <c r="J48" s="28"/>
+      <c r="K48" s="46">
+        <f t="shared" si="2"/>
+        <v>182</v>
+      </c>
+      <c r="L48" s="9">
+        <f t="shared" si="3"/>
+        <v>256217</v>
+      </c>
+      <c r="M48" s="9">
+        <f t="shared" si="4"/>
+        <v>675800</v>
+      </c>
+      <c r="N48" s="48">
+        <f t="shared" si="5"/>
+        <v>419583</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="23" t="s">
         <v>43</v>
       </c>
       <c r="B49" s="1"/>
@@ -2300,10 +3208,14 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-    </row>
-    <row r="50" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="20" t="s">
+      <c r="J49" s="28"/>
+      <c r="K49" s="46"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="48"/>
+    </row>
+    <row r="50" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="19" t="s">
         <v>44</v>
       </c>
       <c r="B50" s="1">
@@ -2329,10 +3241,26 @@
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="J50" s="1"/>
-    </row>
-    <row r="51" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="21" t="s">
+      <c r="J50" s="28"/>
+      <c r="K50" s="46">
+        <f t="shared" si="2"/>
+        <v>134</v>
+      </c>
+      <c r="L50" s="9">
+        <f t="shared" si="3"/>
+        <v>191909</v>
+      </c>
+      <c r="M50" s="9">
+        <f t="shared" si="4"/>
+        <v>503000</v>
+      </c>
+      <c r="N50" s="48">
+        <f t="shared" si="5"/>
+        <v>311091</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="20" t="s">
         <v>45</v>
       </c>
       <c r="B51" s="1">
@@ -2358,10 +3286,26 @@
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="J51" s="1"/>
-    </row>
-    <row r="52" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A52" s="21" t="s">
+      <c r="J51" s="28"/>
+      <c r="K51" s="46">
+        <f t="shared" si="2"/>
+        <v>163</v>
+      </c>
+      <c r="L51" s="9">
+        <f t="shared" si="3"/>
+        <v>238989</v>
+      </c>
+      <c r="M51" s="9">
+        <f t="shared" si="4"/>
+        <v>619500</v>
+      </c>
+      <c r="N51" s="48">
+        <f t="shared" si="5"/>
+        <v>380511</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="20" t="s">
         <v>46</v>
       </c>
       <c r="B52" s="1">
@@ -2387,10 +3331,26 @@
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="J52" s="1"/>
-    </row>
-    <row r="53" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="25" t="s">
+      <c r="J52" s="28"/>
+      <c r="K52" s="46">
+        <f t="shared" si="2"/>
+        <v>146</v>
+      </c>
+      <c r="L52" s="9">
+        <f t="shared" si="3"/>
+        <v>209445</v>
+      </c>
+      <c r="M52" s="9">
+        <f t="shared" si="4"/>
+        <v>546000</v>
+      </c>
+      <c r="N52" s="48">
+        <f t="shared" si="5"/>
+        <v>336555</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="24" t="s">
         <v>47</v>
       </c>
       <c r="B53" s="1">
@@ -2416,10 +3376,26 @@
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="J53" s="1"/>
-    </row>
-    <row r="54" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="24" t="s">
+      <c r="J53" s="28"/>
+      <c r="K53" s="46">
+        <f t="shared" si="2"/>
+        <v>186</v>
+      </c>
+      <c r="L53" s="9">
+        <f t="shared" si="3"/>
+        <v>263707</v>
+      </c>
+      <c r="M53" s="9">
+        <f t="shared" si="4"/>
+        <v>691200</v>
+      </c>
+      <c r="N53" s="48">
+        <f t="shared" si="5"/>
+        <v>427493</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="23" t="s">
         <v>48</v>
       </c>
       <c r="B54" s="1"/>
@@ -2430,10 +3406,14 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-    </row>
-    <row r="55" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="20" t="s">
+      <c r="J54" s="28"/>
+      <c r="K54" s="46"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="48"/>
+    </row>
+    <row r="55" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="19" t="s">
         <v>49</v>
       </c>
       <c r="B55" s="1">
@@ -2459,10 +3439,26 @@
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="J55" s="1"/>
-    </row>
-    <row r="56" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="21" t="s">
+      <c r="J55" s="28"/>
+      <c r="K55" s="46">
+        <f t="shared" si="2"/>
+        <v>167</v>
+      </c>
+      <c r="L55" s="9">
+        <f t="shared" si="3"/>
+        <v>245372</v>
+      </c>
+      <c r="M55" s="9">
+        <f t="shared" si="4"/>
+        <v>634500</v>
+      </c>
+      <c r="N55" s="48">
+        <f t="shared" si="5"/>
+        <v>389128</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="20" t="s">
         <v>50</v>
       </c>
       <c r="B56" s="1">
@@ -2488,10 +3484,26 @@
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="J56" s="1"/>
-    </row>
-    <row r="57" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="25" t="s">
+      <c r="J56" s="28"/>
+      <c r="K56" s="46">
+        <f t="shared" si="2"/>
+        <v>185</v>
+      </c>
+      <c r="L56" s="9">
+        <f t="shared" si="3"/>
+        <v>270670</v>
+      </c>
+      <c r="M56" s="9">
+        <f t="shared" si="4"/>
+        <v>702300</v>
+      </c>
+      <c r="N56" s="48">
+        <f t="shared" si="5"/>
+        <v>431630</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="24" t="s">
         <v>51</v>
       </c>
       <c r="B57" s="1">
@@ -2517,10 +3529,26 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="J57" s="1"/>
-    </row>
-    <row r="58" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="24" t="s">
+      <c r="J57" s="28"/>
+      <c r="K57" s="46">
+        <f t="shared" si="2"/>
+        <v>155</v>
+      </c>
+      <c r="L57" s="9">
+        <f t="shared" si="3"/>
+        <v>229125</v>
+      </c>
+      <c r="M57" s="9">
+        <f t="shared" si="4"/>
+        <v>599500</v>
+      </c>
+      <c r="N57" s="48">
+        <f t="shared" si="5"/>
+        <v>370375</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="23" t="s">
         <v>52</v>
       </c>
       <c r="B58" s="1"/>
@@ -2531,10 +3559,17 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="20" t="s">
+      <c r="J58" s="28"/>
+      <c r="K58" s="46"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="48">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A59" s="19" t="s">
         <v>53</v>
       </c>
       <c r="B59" s="1">
@@ -2560,10 +3595,26 @@
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="J59" s="1"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A60" s="21" t="s">
+      <c r="J59" s="28"/>
+      <c r="K59" s="46">
+        <f t="shared" si="2"/>
+        <v>179</v>
+      </c>
+      <c r="L59" s="9">
+        <f t="shared" si="3"/>
+        <v>257535</v>
+      </c>
+      <c r="M59" s="9">
+        <f t="shared" si="4"/>
+        <v>682500</v>
+      </c>
+      <c r="N59" s="48">
+        <f t="shared" si="5"/>
+        <v>424965</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A60" s="20" t="s">
         <v>54</v>
       </c>
       <c r="B60" s="1">
@@ -2589,10 +3640,26 @@
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="J60" s="1"/>
-    </row>
-    <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="21" t="s">
+      <c r="J60" s="28"/>
+      <c r="K60" s="46">
+        <f t="shared" si="2"/>
+        <v>171</v>
+      </c>
+      <c r="L60" s="9">
+        <f t="shared" si="3"/>
+        <v>245821</v>
+      </c>
+      <c r="M60" s="9">
+        <f t="shared" si="4"/>
+        <v>637500</v>
+      </c>
+      <c r="N60" s="48">
+        <f t="shared" si="5"/>
+        <v>391679</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="20" t="s">
         <v>55</v>
       </c>
       <c r="B61" s="1">
@@ -2618,10 +3685,26 @@
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="J61" s="1"/>
-    </row>
-    <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="24" t="s">
+      <c r="J61" s="28"/>
+      <c r="K61" s="46">
+        <f t="shared" si="2"/>
+        <v>182</v>
+      </c>
+      <c r="L61" s="9">
+        <f t="shared" si="3"/>
+        <v>268521</v>
+      </c>
+      <c r="M61" s="9">
+        <f t="shared" si="4"/>
+        <v>687200</v>
+      </c>
+      <c r="N61" s="48">
+        <f t="shared" si="5"/>
+        <v>418679</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="23" t="s">
         <v>56</v>
       </c>
       <c r="B62" s="1"/>
@@ -2632,10 +3715,14 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-    </row>
-    <row r="63" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="20" t="s">
+      <c r="J62" s="28"/>
+      <c r="K62" s="46"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="48"/>
+    </row>
+    <row r="63" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="19" t="s">
         <v>57</v>
       </c>
       <c r="B63" s="1">
@@ -2661,10 +3748,26 @@
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="J63" s="1"/>
-    </row>
-    <row r="64" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="21" t="s">
+      <c r="J63" s="28"/>
+      <c r="K63" s="46">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+      <c r="L63" s="9">
+        <f t="shared" si="3"/>
+        <v>258791</v>
+      </c>
+      <c r="M63" s="9">
+        <f t="shared" si="4"/>
+        <v>668800</v>
+      </c>
+      <c r="N63" s="48">
+        <f t="shared" si="5"/>
+        <v>410009</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B64" s="1">
@@ -2690,10 +3793,26 @@
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="J64" s="1"/>
-    </row>
-    <row r="65" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="24" t="s">
+      <c r="J64" s="28"/>
+      <c r="K64" s="46">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="L64" s="9">
+        <f t="shared" si="3"/>
+        <v>205879</v>
+      </c>
+      <c r="M64" s="9">
+        <f t="shared" si="4"/>
+        <v>537000</v>
+      </c>
+      <c r="N64" s="48">
+        <f t="shared" si="5"/>
+        <v>331121</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="23" t="s">
         <v>59</v>
       </c>
       <c r="B65" s="1"/>
@@ -2704,10 +3823,14 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-    </row>
-    <row r="66" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="20" t="s">
+      <c r="J65" s="28"/>
+      <c r="K65" s="46"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="48"/>
+    </row>
+    <row r="66" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="19" t="s">
         <v>60</v>
       </c>
       <c r="B66" s="1">
@@ -2733,10 +3856,26 @@
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="J66" s="1"/>
-    </row>
-    <row r="67" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="25" t="s">
+      <c r="J66" s="28"/>
+      <c r="K66" s="46">
+        <f t="shared" si="2"/>
+        <v>173</v>
+      </c>
+      <c r="L66" s="9">
+        <f t="shared" si="3"/>
+        <v>244719</v>
+      </c>
+      <c r="M66" s="9">
+        <f t="shared" si="4"/>
+        <v>645300</v>
+      </c>
+      <c r="N66" s="48">
+        <f t="shared" si="5"/>
+        <v>400581</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="24" t="s">
         <v>61</v>
       </c>
       <c r="B67" s="1">
@@ -2762,10 +3901,26 @@
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="J67" s="1"/>
-    </row>
-    <row r="68" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="24" t="s">
+      <c r="J67" s="28"/>
+      <c r="K67" s="46">
+        <f t="shared" si="2"/>
+        <v>194</v>
+      </c>
+      <c r="L67" s="9">
+        <f t="shared" si="3"/>
+        <v>279466</v>
+      </c>
+      <c r="M67" s="9">
+        <f t="shared" si="4"/>
+        <v>721400</v>
+      </c>
+      <c r="N67" s="48">
+        <f t="shared" si="5"/>
+        <v>441934</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="23" t="s">
         <v>62</v>
       </c>
       <c r="B68" s="1"/>
@@ -2776,10 +3931,14 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-    </row>
-    <row r="69" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A69" s="20" t="s">
+      <c r="J68" s="28"/>
+      <c r="K68" s="46"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="48"/>
+    </row>
+    <row r="69" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A69" s="19" t="s">
         <v>63</v>
       </c>
       <c r="B69" s="1">
@@ -2805,10 +3964,26 @@
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="J69" s="1"/>
-    </row>
-    <row r="70" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="18" t="s">
+      <c r="J69" s="28"/>
+      <c r="K69" s="46">
+        <f t="shared" si="2"/>
+        <v>171</v>
+      </c>
+      <c r="L69" s="9">
+        <f t="shared" si="3"/>
+        <v>245356</v>
+      </c>
+      <c r="M69" s="9">
+        <f t="shared" si="4"/>
+        <v>632500</v>
+      </c>
+      <c r="N69" s="48">
+        <f t="shared" si="5"/>
+        <v>387144</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="17" t="s">
         <v>64</v>
       </c>
       <c r="B70" s="1"/>
@@ -2819,10 +3994,14 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-    </row>
-    <row r="71" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="20" t="s">
+      <c r="J70" s="28"/>
+      <c r="K70" s="46"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="48"/>
+    </row>
+    <row r="71" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="19" t="s">
         <v>65</v>
       </c>
       <c r="B71" s="1">
@@ -2845,13 +4024,29 @@
         <v>7</v>
       </c>
       <c r="I71" s="1">
-        <f t="shared" ref="I71:I81" si="2">SUM(E71:F71)</f>
+        <f t="shared" ref="I71:I81" si="6">SUM(E71:F71)</f>
         <v>65</v>
       </c>
-      <c r="J71" s="1"/>
-    </row>
-    <row r="72" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A72" s="21" t="s">
+      <c r="J71" s="28"/>
+      <c r="K71" s="46">
+        <f t="shared" ref="K70:K82" si="7">SUM(B71:J71)</f>
+        <v>187</v>
+      </c>
+      <c r="L71" s="9">
+        <f t="shared" ref="L70:L82" si="8">B71*$B$2+C71*$C$2+D71*$D$2+E71*$E$2+F71*$F$2+G71*$G$2+H71*$H$2+I71*$I$2+J71*$J$2</f>
+        <v>266890</v>
+      </c>
+      <c r="M71" s="9">
+        <f t="shared" ref="M70:M82" si="9">B71*$B$3+C71*$C$3+D71*$D$3+E71*$E$3+F71*$F$3+G71*$G$3+H71*$H$3+I71*$I$3+J71*$J$3</f>
+        <v>690500</v>
+      </c>
+      <c r="N71" s="48">
+        <f t="shared" ref="N70:N83" si="10">M71-L71</f>
+        <v>423610</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A72" s="20" t="s">
         <v>82</v>
       </c>
       <c r="B72" s="1">
@@ -2874,13 +4069,29 @@
         <v>7</v>
       </c>
       <c r="I72" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>47</v>
       </c>
-      <c r="J72" s="1"/>
-    </row>
-    <row r="73" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="25" t="s">
+      <c r="J72" s="28"/>
+      <c r="K72" s="46">
+        <f t="shared" si="7"/>
+        <v>138</v>
+      </c>
+      <c r="L72" s="9">
+        <f t="shared" si="8"/>
+        <v>192529</v>
+      </c>
+      <c r="M72" s="9">
+        <f t="shared" si="9"/>
+        <v>507400</v>
+      </c>
+      <c r="N72" s="48">
+        <f t="shared" si="10"/>
+        <v>314871</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="24" t="s">
         <v>83</v>
       </c>
       <c r="B73" s="1">
@@ -2903,13 +4114,29 @@
         <v>5</v>
       </c>
       <c r="I73" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>46</v>
       </c>
-      <c r="J73" s="1"/>
-    </row>
-    <row r="74" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="24" t="s">
+      <c r="J73" s="28"/>
+      <c r="K73" s="46">
+        <f t="shared" si="7"/>
+        <v>161</v>
+      </c>
+      <c r="L73" s="9">
+        <f t="shared" si="8"/>
+        <v>239301</v>
+      </c>
+      <c r="M73" s="9">
+        <f t="shared" si="9"/>
+        <v>620500</v>
+      </c>
+      <c r="N73" s="48">
+        <f t="shared" si="10"/>
+        <v>381199</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="23" t="s">
         <v>84</v>
       </c>
       <c r="B74" s="1">
@@ -2930,13 +4157,29 @@
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>43</v>
       </c>
-      <c r="J74" s="1"/>
-    </row>
-    <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="27" t="s">
+      <c r="J74" s="28"/>
+      <c r="K74" s="46">
+        <f t="shared" si="7"/>
+        <v>152</v>
+      </c>
+      <c r="L74" s="9">
+        <f t="shared" si="8"/>
+        <v>229674</v>
+      </c>
+      <c r="M74" s="9">
+        <f t="shared" si="9"/>
+        <v>588200</v>
+      </c>
+      <c r="N74" s="48">
+        <f t="shared" si="10"/>
+        <v>358526</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="26" t="s">
         <v>87</v>
       </c>
       <c r="B75" s="1">
@@ -2951,10 +4194,26 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-    </row>
-    <row r="76" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="28" t="s">
+      <c r="J75" s="28"/>
+      <c r="K75" s="46">
+        <f t="shared" si="7"/>
+        <v>32</v>
+      </c>
+      <c r="L75" s="9">
+        <f t="shared" si="8"/>
+        <v>55794</v>
+      </c>
+      <c r="M75" s="9">
+        <f t="shared" si="9"/>
+        <v>130000</v>
+      </c>
+      <c r="N75" s="48">
+        <f t="shared" si="10"/>
+        <v>74206</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="27" t="s">
         <v>88</v>
       </c>
       <c r="B76" s="1">
@@ -2969,12 +4228,28 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-      <c r="J76" s="1">
+      <c r="J76" s="28">
         <v>40</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A77" s="29" t="s">
+      <c r="K76" s="46">
+        <f t="shared" si="7"/>
+        <v>56</v>
+      </c>
+      <c r="L76" s="9">
+        <f t="shared" si="8"/>
+        <v>61750</v>
+      </c>
+      <c r="M76" s="9">
+        <f t="shared" si="9"/>
+        <v>163600</v>
+      </c>
+      <c r="N76" s="48">
+        <f t="shared" si="10"/>
+        <v>101850</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A77" s="28" t="s">
         <v>89</v>
       </c>
       <c r="B77" s="1">
@@ -2989,12 +4264,28 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-      <c r="J77" s="1">
+      <c r="J77" s="28">
         <v>40</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="30" t="s">
+      <c r="K77" s="46">
+        <f t="shared" si="7"/>
+        <v>59</v>
+      </c>
+      <c r="L77" s="9">
+        <f t="shared" si="8"/>
+        <v>66979</v>
+      </c>
+      <c r="M77" s="9">
+        <f t="shared" si="9"/>
+        <v>175700</v>
+      </c>
+      <c r="N77" s="48">
+        <f t="shared" si="10"/>
+        <v>108721</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="29" t="s">
         <v>90</v>
       </c>
       <c r="B78" s="1">
@@ -3009,12 +4300,28 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-      <c r="J78" s="1">
+      <c r="J78" s="28">
         <v>56</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="27" t="s">
+      <c r="K78" s="46">
+        <f t="shared" si="7"/>
+        <v>85</v>
+      </c>
+      <c r="L78" s="9">
+        <f t="shared" si="8"/>
+        <v>98051</v>
+      </c>
+      <c r="M78" s="9">
+        <f t="shared" si="9"/>
+        <v>260700</v>
+      </c>
+      <c r="N78" s="48">
+        <f t="shared" si="10"/>
+        <v>162649</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="26" t="s">
         <v>93</v>
       </c>
       <c r="B79" s="1">
@@ -3029,10 +4336,26 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-    </row>
-    <row r="80" spans="1:10" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="20" t="s">
+      <c r="J79" s="28"/>
+      <c r="K79" s="46">
+        <f t="shared" si="7"/>
+        <v>29</v>
+      </c>
+      <c r="L79" s="9">
+        <f t="shared" si="8"/>
+        <v>50538</v>
+      </c>
+      <c r="M79" s="9">
+        <f t="shared" si="9"/>
+        <v>116500</v>
+      </c>
+      <c r="N79" s="48">
+        <f t="shared" si="10"/>
+        <v>65962</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="19" t="s">
         <v>91</v>
       </c>
       <c r="B80" s="1">
@@ -3049,10 +4372,26 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-    </row>
-    <row r="81" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A81" s="21" t="s">
+      <c r="J80" s="28"/>
+      <c r="K80" s="46">
+        <f t="shared" si="7"/>
+        <v>53</v>
+      </c>
+      <c r="L80" s="9">
+        <f t="shared" si="8"/>
+        <v>70947</v>
+      </c>
+      <c r="M80" s="9">
+        <f t="shared" si="9"/>
+        <v>204700</v>
+      </c>
+      <c r="N80" s="48">
+        <f t="shared" si="10"/>
+        <v>133753</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A81" s="20" t="s">
         <v>92</v>
       </c>
       <c r="B81" s="1">
@@ -3077,76 +4416,279 @@
         <v>9</v>
       </c>
       <c r="I81" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>52</v>
       </c>
-      <c r="J81" s="1"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J81" s="28"/>
+      <c r="K81" s="46">
+        <f t="shared" si="7"/>
+        <v>196</v>
+      </c>
+      <c r="L81" s="9">
+        <f t="shared" si="8"/>
+        <v>265970</v>
+      </c>
+      <c r="M81" s="9">
+        <f t="shared" si="9"/>
+        <v>732400</v>
+      </c>
+      <c r="N81" s="48">
+        <f t="shared" si="10"/>
+        <v>466430</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82" s="14">
         <v>6</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C82" s="14">
         <v>21</v>
       </c>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A83" s="7"/>
-      <c r="B83" s="31"/>
-      <c r="C83" s="31"/>
-      <c r="D83" s="31"/>
-      <c r="E83" s="31"/>
-      <c r="F83" s="31"/>
-      <c r="G83" s="31"/>
-      <c r="H83" s="31"/>
-      <c r="I83" s="31"/>
-      <c r="J83" s="31"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A84" s="7"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A85" s="7"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A86" s="7"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="14"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="14"/>
+      <c r="J82" s="29"/>
+      <c r="K82" s="46">
+        <f t="shared" si="7"/>
+        <v>27</v>
+      </c>
+      <c r="L82" s="9">
+        <f>B82*$B$2+C82*$C$2+D82*$D$2+E82*$E$2+F82*$F$2+G82*$G$2+H82*$H$2+I82*$I$2+J82*$J$2</f>
+        <v>47142</v>
+      </c>
+      <c r="M82" s="9">
+        <f t="shared" si="9"/>
+        <v>113100</v>
+      </c>
+      <c r="N82" s="48">
+        <f t="shared" si="10"/>
+        <v>65958</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A83" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="B83" s="36">
+        <f>SUM(B5:B82)</f>
+        <v>483</v>
+      </c>
+      <c r="C83" s="37">
+        <f t="shared" ref="C83:J83" si="11">SUM(C5:C82)</f>
+        <v>1085</v>
+      </c>
+      <c r="D83" s="37">
+        <f t="shared" si="11"/>
+        <v>48</v>
+      </c>
+      <c r="E83" s="37">
+        <f t="shared" si="11"/>
+        <v>1502</v>
+      </c>
+      <c r="F83" s="37">
+        <f t="shared" si="11"/>
+        <v>1541</v>
+      </c>
+      <c r="G83" s="37">
+        <f t="shared" si="11"/>
+        <v>1537</v>
+      </c>
+      <c r="H83" s="37">
+        <f t="shared" si="11"/>
+        <v>400</v>
+      </c>
+      <c r="I83" s="37">
+        <f t="shared" si="11"/>
+        <v>3043</v>
+      </c>
+      <c r="J83" s="43">
+        <f t="shared" si="11"/>
+        <v>136</v>
+      </c>
+      <c r="K83" s="55">
+        <f>SUM(K5:K82)</f>
+        <v>9775</v>
+      </c>
+      <c r="L83" s="56">
+        <f>SUM(L5:L82)</f>
+        <v>14002183</v>
+      </c>
+      <c r="M83" s="56">
+        <f>SUM(M5:M82)</f>
+        <v>36505300</v>
+      </c>
+      <c r="N83" s="57">
+        <f>SUM(N5:N82)</f>
+        <v>22503117</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A84" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="B84" s="38">
+        <f>B83*B2</f>
+        <v>833175</v>
+      </c>
+      <c r="C84" s="35">
+        <f>C83*C2</f>
+        <v>1900920</v>
+      </c>
+      <c r="D84" s="35">
+        <f t="shared" ref="C84:J84" si="12">D83*D2</f>
+        <v>40656</v>
+      </c>
+      <c r="E84" s="35">
+        <f t="shared" si="12"/>
+        <v>1907540</v>
+      </c>
+      <c r="F84" s="35">
+        <f t="shared" si="12"/>
+        <v>2608913</v>
+      </c>
+      <c r="G84" s="35">
+        <f t="shared" si="12"/>
+        <v>2668232</v>
+      </c>
+      <c r="H84" s="35">
+        <f t="shared" si="12"/>
+        <v>321600</v>
+      </c>
+      <c r="I84" s="35">
+        <f t="shared" si="12"/>
+        <v>3605955</v>
+      </c>
+      <c r="J84" s="44">
+        <f t="shared" si="12"/>
+        <v>115192</v>
+      </c>
+      <c r="K84" s="46"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="47"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A85" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="B85" s="38">
+        <f>B3*B83</f>
+        <v>1497300</v>
+      </c>
+      <c r="C85" s="35">
+        <f t="shared" ref="C85:J85" si="13">C3*C83</f>
+        <v>4882500</v>
+      </c>
+      <c r="D85" s="35">
+        <f t="shared" si="13"/>
+        <v>168000</v>
+      </c>
+      <c r="E85" s="35">
+        <f t="shared" si="13"/>
+        <v>6759000</v>
+      </c>
+      <c r="F85" s="35">
+        <f t="shared" si="13"/>
+        <v>6934500</v>
+      </c>
+      <c r="G85" s="35">
+        <f t="shared" si="13"/>
+        <v>6916500</v>
+      </c>
+      <c r="H85" s="35">
+        <f t="shared" si="13"/>
+        <v>1400000</v>
+      </c>
+      <c r="I85" s="35">
+        <f t="shared" si="13"/>
+        <v>7607500</v>
+      </c>
+      <c r="J85" s="44">
+        <f t="shared" si="13"/>
+        <v>340000</v>
+      </c>
+      <c r="K85" s="46"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="47"/>
+    </row>
+    <row r="86" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="B86" s="39">
+        <f>B85-B84</f>
+        <v>664125</v>
+      </c>
+      <c r="C86" s="40">
+        <f t="shared" ref="C86:J86" si="14">C85-C84</f>
+        <v>2981580</v>
+      </c>
+      <c r="D86" s="40">
+        <f t="shared" si="14"/>
+        <v>127344</v>
+      </c>
+      <c r="E86" s="40">
+        <f t="shared" si="14"/>
+        <v>4851460</v>
+      </c>
+      <c r="F86" s="40">
+        <f t="shared" si="14"/>
+        <v>4325587</v>
+      </c>
+      <c r="G86" s="40">
+        <f t="shared" si="14"/>
+        <v>4248268</v>
+      </c>
+      <c r="H86" s="40">
+        <f t="shared" si="14"/>
+        <v>1078400</v>
+      </c>
+      <c r="I86" s="40">
+        <f t="shared" si="14"/>
+        <v>4001545</v>
+      </c>
+      <c r="J86" s="45">
+        <f t="shared" si="14"/>
+        <v>224808</v>
+      </c>
+      <c r="K86" s="49"/>
+      <c r="L86" s="50"/>
+      <c r="M86" s="50"/>
+      <c r="N86" s="51"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" s="7"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" s="7"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" s="7"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" s="7"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A91" s="32"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A92" s="32"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A93" s="32"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A94" s="32"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A95" s="32"/>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A91" s="30"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A92" s="30"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A93" s="30"/>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A94" s="30"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A95" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3161,7 +4703,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
